--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_9_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_9_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-959742.9380510221</v>
+        <v>-959967.1030304437</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>244259.5951960792</v>
+        <v>244259.595196078</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.4390198781911</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.4390198781911</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="F11" t="n">
-        <v>7.4390198781911</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="G11" t="n">
-        <v>7.4390198781911</v>
+        <v>4.906014657168427</v>
       </c>
       <c r="H11" t="n">
-        <v>4.906014657167972</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>7.4390198781911</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1406,10 +1406,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7543371491239554</v>
+        <v>0.7543371491238418</v>
       </c>
       <c r="P11" t="n">
-        <v>7.4390198781911</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.350201060390759</v>
+        <v>1.350201060390532</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.4390198781911</v>
+        <v>7.439019878191345</v>
       </c>
     </row>
     <row r="12">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.012421037435685</v>
+        <v>8.012421037436596</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.012421037435685</v>
+        <v>8.012421037436596</v>
       </c>
       <c r="F14" t="n">
-        <v>5.535081752804039</v>
+        <v>8.012421037436596</v>
       </c>
       <c r="G14" t="n">
-        <v>8.012421037435685</v>
+        <v>5.535081752805027</v>
       </c>
       <c r="H14" t="n">
-        <v>8.012421037435685</v>
+        <v>8.012421037436596</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>8.012421037435685</v>
+        <v>8.012421037436596</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6075004284125498</v>
+        <v>0.6075004284124361</v>
       </c>
       <c r="P14" t="n">
-        <v>7.292183157480054</v>
+        <v>7.292183157479965</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.203364339679354</v>
+        <v>1.203364339679126</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.012421037435685</v>
+        <v>8.012421037436596</v>
       </c>
     </row>
     <row r="15">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>10.18915825909249</v>
+        <v>10.18915825909264</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>5.568659629367858</v>
+        <v>5.568659629367971</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.86801373781958</v>
+        <v>15.86801373781941</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>9.937108268821021</v>
+        <v>9.93710826882085</v>
       </c>
       <c r="F20" t="n">
-        <v>18.57974169281347</v>
+        <v>18.57974169281437</v>
       </c>
       <c r="G20" t="n">
-        <v>18.57974169281347</v>
+        <v>18.57974169281437</v>
       </c>
       <c r="H20" t="n">
-        <v>18.57974169281347</v>
+        <v>18.57974169281437</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>5.255838450961789</v>
+        <v>5.255838450961758</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>18.57974169281347</v>
+        <v>18.57974169281437</v>
       </c>
     </row>
     <row r="21">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.3613557788866</v>
+        <v>14.36135577888655</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>8.430450309888045</v>
+        <v>8.430450309887988</v>
       </c>
       <c r="F23" t="n">
-        <v>31.201333589765</v>
+        <v>31.20133358976494</v>
       </c>
       <c r="G23" t="n">
-        <v>31.201333589765</v>
+        <v>31.20133358976494</v>
       </c>
       <c r="H23" t="n">
-        <v>26.93091603578148</v>
+        <v>26.93091603578142</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8.36967912175345</v>
+        <v>8.369679121753535</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>3.749180492028813</v>
+        <v>3.74918049202887</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.201333589765</v>
+        <v>31.20133358976494</v>
       </c>
     </row>
     <row r="24">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.36135577888655</v>
+        <v>14.36135577888649</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>8.430450309887988</v>
+        <v>8.430450309887931</v>
       </c>
       <c r="F26" t="n">
         <v>31.20133358976494</v>
@@ -2570,7 +2570,7 @@
         <v>31.20133358976494</v>
       </c>
       <c r="H26" t="n">
-        <v>26.93091603578142</v>
+        <v>26.93091603578137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>8.369679121753393</v>
+        <v>8.369679121753506</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>3.749180492028756</v>
+        <v>3.749180492028813</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.20133358976494</v>
+        <v>31.20133358976489</v>
       </c>
     </row>
     <row r="27">
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>8.369679121753393</v>
+        <v>8.369679121753535</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>3.749180492028756</v>
+        <v>3.74918049202887</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.22409260198407</v>
+        <v>13.22409260198413</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.293187132985508</v>
+        <v>7.293187132985565</v>
       </c>
       <c r="F32" t="n">
-        <v>49.78107528257843</v>
+        <v>49.78107528257711</v>
       </c>
       <c r="G32" t="n">
-        <v>49.78107528257843</v>
+        <v>49.78107528257711</v>
       </c>
       <c r="H32" t="n">
-        <v>25.79365285887894</v>
+        <v>25.793652858879</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>7.232415944850914</v>
+        <v>7.232415944851141</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.611917315126277</v>
+        <v>2.611917315126448</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>30.06407041286246</v>
+        <v>30.06407041286252</v>
       </c>
     </row>
     <row r="33">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13.53691378039014</v>
+        <v>13.53691378039042</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.606008311391577</v>
+        <v>7.606008311391861</v>
       </c>
       <c r="F35" t="n">
-        <v>42.34205540438732</v>
+        <v>42.34205540438576</v>
       </c>
       <c r="G35" t="n">
-        <v>42.34205540438732</v>
+        <v>42.34205540438576</v>
       </c>
       <c r="H35" t="n">
-        <v>26.106474037285</v>
+        <v>26.10647403728529</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>7.545237123256978</v>
+        <v>7.545237123257408</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.924738493532352</v>
+        <v>2.924738493532768</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>30.37689159126853</v>
+        <v>30.37689159126882</v>
       </c>
     </row>
     <row r="36">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.71453168097509</v>
+        <v>13.7145316809752</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>7.783626211976525</v>
+        <v>7.783626211976639</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76865424514274</v>
+        <v>41.76865424514051</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76865424514274</v>
+        <v>41.76865424514051</v>
       </c>
       <c r="H38" t="n">
-        <v>26.28409193786996</v>
+        <v>26.28409193787007</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>7.72285502384193</v>
+        <v>7.722855023842214</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>3.102356394117294</v>
+        <v>3.102356394117521</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>30.55450949185348</v>
+        <v>30.55450949185359</v>
       </c>
     </row>
     <row r="39">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>14.21451905817531</v>
+        <v>14.21451905817526</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8.283613589176753</v>
+        <v>8.283613589176696</v>
       </c>
       <c r="F41" t="n">
-        <v>33.60024036635286</v>
+        <v>33.60024036635366</v>
       </c>
       <c r="G41" t="n">
-        <v>33.60024036635286</v>
+        <v>33.60024036635366</v>
       </c>
       <c r="H41" t="n">
-        <v>26.78407931507019</v>
+        <v>26.78407931507013</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>8.222842401042158</v>
+        <v>8.222842401042271</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>3.602343771317521</v>
+        <v>3.602343771317578</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.05449686905371</v>
+        <v>31.05449686905365</v>
       </c>
     </row>
     <row r="42">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.36135577888666</v>
+        <v>14.3613557788866</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,16 +3983,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8.430450309888101</v>
+        <v>8.430450309888045</v>
       </c>
       <c r="F44" t="n">
-        <v>31.20133358976506</v>
+        <v>31.201333589765</v>
       </c>
       <c r="G44" t="n">
-        <v>31.20133358976506</v>
+        <v>31.201333589765</v>
       </c>
       <c r="H44" t="n">
-        <v>26.93091603578154</v>
+        <v>26.93091603578148</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>8.369679121753336</v>
+        <v>8.369679121753496</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.749180492028756</v>
+        <v>3.74918049202887</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.20133358976506</v>
+        <v>31.201333589765</v>
       </c>
     </row>
     <row r="45">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.36391707157961</v>
+        <v>13.36391707158032</v>
       </c>
       <c r="C11" t="n">
-        <v>20.7285467509888</v>
+        <v>20.72854675098978</v>
       </c>
       <c r="D11" t="n">
-        <v>28.09317643039799</v>
+        <v>28.09317643039921</v>
       </c>
       <c r="E11" t="n">
-        <v>20.57901493727567</v>
+        <v>20.57901493727664</v>
       </c>
       <c r="F11" t="n">
-        <v>13.06485344415334</v>
+        <v>13.06485344415407</v>
       </c>
       <c r="G11" t="n">
-        <v>5.550691951031018</v>
+        <v>8.10928308337788</v>
       </c>
       <c r="H11" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="I11" t="n">
-        <v>4.096119795431946</v>
+        <v>6.448274866466141</v>
       </c>
       <c r="J11" t="n">
-        <v>11.46074947484114</v>
+        <v>6.526748202227989</v>
       </c>
       <c r="K11" t="n">
-        <v>18.80080489555925</v>
+        <v>13.86680362294624</v>
       </c>
       <c r="L11" t="n">
-        <v>11.28664340243692</v>
+        <v>6.352642129823653</v>
       </c>
       <c r="M11" t="n">
-        <v>11.51955713343852</v>
+        <v>6.585555860825309</v>
       </c>
       <c r="N11" t="n">
-        <v>13.80524107227791</v>
+        <v>8.87123979966459</v>
       </c>
       <c r="O11" t="n">
-        <v>13.04328435599109</v>
+        <v>8.10928308337788</v>
       </c>
       <c r="P11" t="n">
-        <v>5.529122862868761</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.574498621160295</v>
+        <v>0.6404973485469005</v>
       </c>
       <c r="R11" t="n">
-        <v>7.662190474536832</v>
+        <v>0.6404973485469005</v>
       </c>
       <c r="S11" t="n">
-        <v>7.662190474536832</v>
+        <v>7.662190474537085</v>
       </c>
       <c r="T11" t="n">
-        <v>15.02682015394602</v>
+        <v>15.02682015394652</v>
       </c>
       <c r="U11" t="n">
-        <v>15.02682015394602</v>
+        <v>22.39144983335595</v>
       </c>
       <c r="V11" t="n">
-        <v>22.39144983335521</v>
+        <v>29.75607951276538</v>
       </c>
       <c r="W11" t="n">
-        <v>29.7560795127644</v>
+        <v>29.75607951276538</v>
       </c>
       <c r="X11" t="n">
-        <v>28.39224005782425</v>
+        <v>28.39224005782546</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.87807856470193</v>
+        <v>20.87807856470289</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="C12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="D12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="E12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="F12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="G12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="H12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="I12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="J12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="K12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="L12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="M12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="N12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="O12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="P12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="R12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="S12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="T12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="U12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="V12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="W12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="X12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="C13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="D13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="E13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="F13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="G13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="H13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="I13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="J13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="K13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="L13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="M13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="N13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="O13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="P13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="R13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="S13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="T13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="U13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="V13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="W13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="X13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.595121590255288</v>
+        <v>0.5951215902553076</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.64745544817633</v>
+        <v>14.64745544817836</v>
       </c>
       <c r="C14" t="n">
-        <v>22.57975227523766</v>
+        <v>22.57975227524059</v>
       </c>
       <c r="D14" t="n">
-        <v>30.51204910229899</v>
+        <v>30.51204910230283</v>
       </c>
       <c r="E14" t="n">
-        <v>22.41869451903062</v>
+        <v>22.41869451903353</v>
       </c>
       <c r="F14" t="n">
-        <v>16.82770284953159</v>
+        <v>14.32533993576424</v>
       </c>
       <c r="G14" t="n">
-        <v>8.734348266263224</v>
+        <v>8.734348266264217</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="I14" t="n">
-        <v>6.639515312709811</v>
+        <v>6.350477516446317</v>
       </c>
       <c r="J14" t="n">
-        <v>13.90449225900182</v>
+        <v>14.28277434350875</v>
       </c>
       <c r="K14" t="n">
-        <v>13.90449225900182</v>
+        <v>14.28277434350875</v>
       </c>
       <c r="L14" t="n">
-        <v>5.811137675733448</v>
+        <v>6.189419760239463</v>
       </c>
       <c r="M14" t="n">
-        <v>6.189419760239673</v>
+        <v>6.189419760239463</v>
       </c>
       <c r="N14" t="n">
-        <v>8.620472052583352</v>
+        <v>8.620472052583278</v>
       </c>
       <c r="O14" t="n">
-        <v>8.006835256207069</v>
+        <v>8.006835256207079</v>
       </c>
       <c r="P14" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8317377947906825</v>
+        <v>0.8317377947908771</v>
       </c>
       <c r="R14" t="n">
-        <v>0.8317377947906825</v>
+        <v>0.8317377947908771</v>
       </c>
       <c r="S14" t="n">
-        <v>8.252793668558759</v>
+        <v>0.8317377947908771</v>
       </c>
       <c r="T14" t="n">
-        <v>16.18509049562008</v>
+        <v>8.764034621853106</v>
       </c>
       <c r="U14" t="n">
-        <v>24.11738732268141</v>
+        <v>16.18509049562192</v>
       </c>
       <c r="V14" t="n">
-        <v>32.04968414974274</v>
+        <v>24.11738732268415</v>
       </c>
       <c r="W14" t="n">
-        <v>32.04968414974274</v>
+        <v>32.04968414974638</v>
       </c>
       <c r="X14" t="n">
-        <v>30.83416461471307</v>
+        <v>30.83416461471694</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.7408100314447</v>
+        <v>22.74081003144765</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="P15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="T15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="U15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="V15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="W15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="X15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="P16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="R16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="S16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="U16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="W16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="X16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.6409936829948548</v>
+        <v>0.6409936829949276</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.03478427858815</v>
+        <v>28.64271082675107</v>
       </c>
       <c r="C17" t="n">
-        <v>48.05381084565154</v>
+        <v>44.66173739381446</v>
       </c>
       <c r="D17" t="n">
         <v>60.68076396087785</v>
       </c>
       <c r="E17" t="n">
-        <v>50.32729987276972</v>
+        <v>50.32729987276973</v>
       </c>
       <c r="F17" t="n">
         <v>33.9830221796125</v>
@@ -5510,55 +5510,55 @@
         <v>1.294466793298052</v>
       </c>
       <c r="I17" t="n">
-        <v>1.294466793298052</v>
+        <v>8.999276715844072</v>
       </c>
       <c r="J17" t="n">
-        <v>17.31349336036144</v>
+        <v>25.01830328290738</v>
       </c>
       <c r="K17" t="n">
-        <v>26.5052054274149</v>
+        <v>25.01830328290738</v>
       </c>
       <c r="L17" t="n">
-        <v>16.21312637782652</v>
+        <v>14.72622423331886</v>
       </c>
       <c r="M17" t="n">
-        <v>18.29769675516349</v>
+        <v>16.81079461065569</v>
       </c>
       <c r="N17" t="n">
-        <v>22.43503734033844</v>
+        <v>16.81079461065569</v>
       </c>
       <c r="O17" t="n">
-        <v>23.53990020904113</v>
+        <v>17.91565747935788</v>
       </c>
       <c r="P17" t="n">
-        <v>17.91499149250794</v>
+        <v>12.29074876282457</v>
       </c>
       <c r="Q17" t="n">
-        <v>19.81202389713471</v>
+        <v>14.18778116745142</v>
       </c>
       <c r="R17" t="n">
-        <v>19.81202389713471</v>
+        <v>18.1271296671632</v>
       </c>
       <c r="S17" t="n">
-        <v>35.8310504641981</v>
+        <v>28.7782554823908</v>
       </c>
       <c r="T17" t="n">
-        <v>35.8310504641981</v>
+        <v>28.7782554823908</v>
       </c>
       <c r="U17" t="n">
-        <v>35.8310504641981</v>
+        <v>28.7782554823908</v>
       </c>
       <c r="V17" t="n">
-        <v>51.85007703126149</v>
+        <v>44.7972820494542</v>
       </c>
       <c r="W17" t="n">
-        <v>64.7233396649026</v>
+        <v>60.81630861651759</v>
       </c>
       <c r="X17" t="n">
-        <v>64.7233396649026</v>
+        <v>61.33126621306612</v>
       </c>
       <c r="Y17" t="n">
-        <v>48.37906197174537</v>
+        <v>44.98698851990829</v>
       </c>
     </row>
     <row r="18">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.03822143745383</v>
+        <v>39.52325421506224</v>
       </c>
       <c r="C20" t="n">
-        <v>49.43216571333916</v>
+        <v>57.91719849094846</v>
       </c>
       <c r="D20" t="n">
-        <v>67.82610998922449</v>
+        <v>67.82610998922712</v>
       </c>
       <c r="E20" t="n">
-        <v>57.78862688940528</v>
+        <v>57.78862688940808</v>
       </c>
       <c r="F20" t="n">
-        <v>39.02121103807855</v>
+        <v>39.02121103808044</v>
       </c>
       <c r="G20" t="n">
-        <v>20.25379518675181</v>
+        <v>20.25379518675279</v>
       </c>
       <c r="H20" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="I20" t="n">
-        <v>1.486379335425077</v>
+        <v>9.500882224593319</v>
       </c>
       <c r="J20" t="n">
-        <v>19.88032361131041</v>
+        <v>27.89482650047965</v>
       </c>
       <c r="K20" t="n">
-        <v>29.3817286449859</v>
+        <v>37.3962315341552</v>
       </c>
       <c r="L20" t="n">
-        <v>19.40563058368639</v>
+        <v>27.4201334728558</v>
       </c>
       <c r="M20" t="n">
-        <v>21.79989392764536</v>
+        <v>29.81439681681477</v>
       </c>
       <c r="N20" t="n">
-        <v>26.24692747944214</v>
+        <v>34.26143036861184</v>
       </c>
       <c r="O20" t="n">
-        <v>27.66148331476682</v>
+        <v>34.26143036861184</v>
       </c>
       <c r="P20" t="n">
-        <v>22.35255558652234</v>
+        <v>28.95250264036764</v>
       </c>
       <c r="Q20" t="n">
-        <v>24.55928095777124</v>
+        <v>28.95250264036764</v>
       </c>
       <c r="R20" t="n">
-        <v>28.80832242410514</v>
+        <v>33.20154410670165</v>
       </c>
       <c r="S20" t="n">
-        <v>47.20226669998979</v>
+        <v>51.59548838258787</v>
       </c>
       <c r="T20" t="n">
-        <v>47.20226669998979</v>
+        <v>51.59548838258787</v>
       </c>
       <c r="U20" t="n">
-        <v>47.20226669998979</v>
+        <v>55.10037193220056</v>
       </c>
       <c r="V20" t="n">
-        <v>47.20226669998979</v>
+        <v>55.10037193220056</v>
       </c>
       <c r="W20" t="n">
-        <v>65.59621097587512</v>
+        <v>73.49431620808679</v>
       </c>
       <c r="X20" t="n">
-        <v>65.83393399364886</v>
+        <v>74.31896677125746</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.06651814232212</v>
+        <v>55.55155091993036</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="C21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="D21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="E21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="F21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="G21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="H21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="I21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="J21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="K21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="L21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="M21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="N21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="O21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="P21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="R21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="S21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="T21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="U21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="V21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="W21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="X21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="C22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="D22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="E22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="F22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="G22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="H22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="I22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="J22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="K22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="L22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="M22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="N22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="O22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="P22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="R22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="S22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="T22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="U22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="V22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="W22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="X22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.486379335425077</v>
+        <v>1.486379335425149</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>72.78893532723154</v>
+        <v>78.78241580486632</v>
       </c>
       <c r="C23" t="n">
-        <v>93.91601410519264</v>
+        <v>99.90949458282719</v>
       </c>
       <c r="D23" t="n">
-        <v>124.80533435906</v>
+        <v>101.247655702534</v>
       </c>
       <c r="E23" t="n">
-        <v>116.2897279854357</v>
+        <v>92.73204932890978</v>
       </c>
       <c r="F23" t="n">
-        <v>84.77322940991552</v>
+        <v>61.21555075338964</v>
       </c>
       <c r="G23" t="n">
-        <v>53.25673083439531</v>
+        <v>29.6990521778695</v>
       </c>
       <c r="H23" t="n">
-        <v>26.05378534370675</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="I23" t="n">
-        <v>26.05378534370675</v>
+        <v>12.0022009556929</v>
       </c>
       <c r="J23" t="n">
-        <v>56.9431055975741</v>
+        <v>42.89152120956037</v>
       </c>
       <c r="K23" t="n">
-        <v>56.9431055975741</v>
+        <v>42.89152120956037</v>
       </c>
       <c r="L23" t="n">
-        <v>48.48888426246966</v>
+        <v>34.43729987445579</v>
       </c>
       <c r="M23" t="n">
-        <v>48.48888426246966</v>
+        <v>34.43729987445579</v>
       </c>
       <c r="N23" t="n">
-        <v>54.42750919361015</v>
+        <v>35.92442459950733</v>
       </c>
       <c r="O23" t="n">
-        <v>55.07963153006219</v>
+        <v>35.92442459950733</v>
       </c>
       <c r="P23" t="n">
-        <v>51.29258052801288</v>
+        <v>32.13737359745788</v>
       </c>
       <c r="Q23" t="n">
-        <v>51.29258052801288</v>
+        <v>32.13737359745788</v>
       </c>
       <c r="R23" t="n">
-        <v>57.0332133736904</v>
+        <v>32.13737359745788</v>
       </c>
       <c r="S23" t="n">
-        <v>57.0332133736904</v>
+        <v>32.13737359745788</v>
       </c>
       <c r="T23" t="n">
-        <v>87.92253362755775</v>
+        <v>63.02669385132518</v>
       </c>
       <c r="U23" t="n">
-        <v>87.92253362755775</v>
+        <v>93.91601410519247</v>
       </c>
       <c r="V23" t="n">
-        <v>118.8118538814251</v>
+        <v>124.8053343590598</v>
       </c>
       <c r="W23" t="n">
-        <v>118.8118538814251</v>
+        <v>124.8053343590598</v>
       </c>
       <c r="X23" t="n">
-        <v>118.8118538814251</v>
+        <v>124.8053343590598</v>
       </c>
       <c r="Y23" t="n">
-        <v>87.29535530590491</v>
+        <v>93.28883578353962</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="C24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="D24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="E24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="F24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="G24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="H24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="I24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="J24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="K24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="L24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="M24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="N24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="O24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="P24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="R24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="S24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="T24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="U24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="V24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="W24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="X24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="C25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="D25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="E25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="F25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="G25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="H25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="I25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="J25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="K25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="L25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="M25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="N25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="O25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="P25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="R25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="S25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="T25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="U25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="V25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="W25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="X25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.4961066871812</v>
+        <v>2.496106687181196</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>70.35833544866672</v>
+        <v>54.21883412437489</v>
       </c>
       <c r="C26" t="n">
-        <v>70.35833544866672</v>
+        <v>70.35833544866659</v>
       </c>
       <c r="D26" t="n">
-        <v>101.247655702534</v>
+        <v>101.2476557025339</v>
       </c>
       <c r="E26" t="n">
-        <v>92.7320493289098</v>
+        <v>92.73204932890972</v>
       </c>
       <c r="F26" t="n">
-        <v>61.21555075338965</v>
+        <v>61.21555075338958</v>
       </c>
       <c r="G26" t="n">
-        <v>29.6990521778695</v>
+        <v>29.69905217786945</v>
       </c>
       <c r="H26" t="n">
         <v>2.496106687181196</v>
       </c>
       <c r="I26" t="n">
-        <v>12.00220095569302</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="J26" t="n">
-        <v>12.00220095569302</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="K26" t="n">
-        <v>22.99519736871221</v>
+        <v>13.48910310020028</v>
       </c>
       <c r="L26" t="n">
-        <v>14.54097603360783</v>
+        <v>5.034881765095747</v>
       </c>
       <c r="M26" t="n">
-        <v>18.4268307569105</v>
+        <v>6.283157689230502</v>
       </c>
       <c r="N26" t="n">
-        <v>24.36545568805101</v>
+        <v>6.283157689230502</v>
       </c>
       <c r="O26" t="n">
-        <v>24.36545568805101</v>
+        <v>6.283157689230502</v>
       </c>
       <c r="P26" t="n">
-        <v>20.57840468600176</v>
+        <v>2.496106687181196</v>
       </c>
       <c r="Q26" t="n">
-        <v>20.57840468600176</v>
+        <v>6.194423437773805</v>
       </c>
       <c r="R26" t="n">
-        <v>26.31903753167939</v>
+        <v>11.93505628345133</v>
       </c>
       <c r="S26" t="n">
-        <v>57.20835778554668</v>
+        <v>42.82437653731863</v>
       </c>
       <c r="T26" t="n">
-        <v>87.53695617296621</v>
+        <v>73.71369679118703</v>
       </c>
       <c r="U26" t="n">
-        <v>87.53695617296621</v>
+        <v>73.71369679118703</v>
       </c>
       <c r="V26" t="n">
-        <v>87.53695617296621</v>
+        <v>73.71369679118703</v>
       </c>
       <c r="W26" t="n">
-        <v>114.0650120603473</v>
+        <v>100.2417526785682</v>
       </c>
       <c r="X26" t="n">
-        <v>116.3812540028616</v>
+        <v>100.2417526785682</v>
       </c>
       <c r="Y26" t="n">
-        <v>84.86475542734003</v>
+        <v>68.72525410304814</v>
       </c>
     </row>
     <row r="27">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>68.01742701186339</v>
+        <v>78.78241580486633</v>
       </c>
       <c r="C29" t="n">
-        <v>89.14450578982456</v>
+        <v>99.90949458282751</v>
       </c>
       <c r="D29" t="n">
-        <v>101.247655702534</v>
+        <v>101.2476557025333</v>
       </c>
       <c r="E29" t="n">
-        <v>92.7320493289098</v>
+        <v>92.73204932890906</v>
       </c>
       <c r="F29" t="n">
-        <v>61.21555075338965</v>
+        <v>61.21555075338891</v>
       </c>
       <c r="G29" t="n">
-        <v>29.6990521778695</v>
+        <v>29.69905217786877</v>
       </c>
       <c r="H29" t="n">
         <v>2.496106687181196</v>
       </c>
       <c r="I29" t="n">
-        <v>2.496106687181196</v>
+        <v>12.00220095569293</v>
       </c>
       <c r="J29" t="n">
-        <v>33.38542694104849</v>
+        <v>42.89152120956011</v>
       </c>
       <c r="K29" t="n">
-        <v>44.37842335406772</v>
+        <v>42.89152120956011</v>
       </c>
       <c r="L29" t="n">
-        <v>35.9242020189633</v>
+        <v>34.43729987445553</v>
       </c>
       <c r="M29" t="n">
-        <v>39.81005674226601</v>
+        <v>34.43729987445553</v>
       </c>
       <c r="N29" t="n">
-        <v>45.74868167340655</v>
+        <v>34.43729987445553</v>
       </c>
       <c r="O29" t="n">
-        <v>48.65482888807487</v>
+        <v>34.43729987445553</v>
       </c>
       <c r="P29" t="n">
-        <v>44.86777788602559</v>
+        <v>30.65024887240608</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.5660946366182</v>
+        <v>34.34856562299862</v>
       </c>
       <c r="R29" t="n">
-        <v>54.30672748229382</v>
+        <v>34.34856562299862</v>
       </c>
       <c r="S29" t="n">
-        <v>54.30672748229382</v>
+        <v>36.49863796394405</v>
       </c>
       <c r="T29" t="n">
-        <v>54.30672748229382</v>
+        <v>67.38795821781135</v>
       </c>
       <c r="U29" t="n">
-        <v>54.30672748229382</v>
+        <v>98.27727847167864</v>
       </c>
       <c r="V29" t="n">
-        <v>85.19604773616112</v>
+        <v>98.27727847167864</v>
       </c>
       <c r="W29" t="n">
-        <v>111.7241036235422</v>
+        <v>124.8053343590598</v>
       </c>
       <c r="X29" t="n">
-        <v>114.0403455660565</v>
+        <v>124.8053343590598</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.52384699053667</v>
+        <v>93.28883578353964</v>
       </c>
     </row>
     <row r="30">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.0496355582035</v>
+        <v>77.79666623510639</v>
       </c>
       <c r="C32" t="n">
-        <v>100.0496355582035</v>
+        <v>100.0496355582009</v>
       </c>
       <c r="D32" t="n">
-        <v>137.9713653731328</v>
+        <v>137.9713653731302</v>
       </c>
       <c r="E32" t="n">
-        <v>130.6045096832485</v>
+        <v>130.6045096832458</v>
       </c>
       <c r="F32" t="n">
-        <v>80.3205952564016</v>
+        <v>80.32059525640022</v>
       </c>
       <c r="G32" t="n">
-        <v>30.0366808295547</v>
+        <v>30.03668082955465</v>
       </c>
       <c r="H32" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="I32" t="n">
-        <v>14.61447083625145</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="J32" t="n">
-        <v>48.90197163433311</v>
+        <v>13.92625699228052</v>
       </c>
       <c r="K32" t="n">
-        <v>61.02085859248575</v>
+        <v>13.92625699228052</v>
       </c>
       <c r="L32" t="n">
-        <v>53.71538794112109</v>
+        <v>6.620786340915727</v>
       </c>
       <c r="M32" t="n">
-        <v>53.71538794112109</v>
+        <v>6.620786340915727</v>
       </c>
       <c r="N32" t="n">
-        <v>60.77990341739508</v>
+        <v>6.620786340915727</v>
       </c>
       <c r="O32" t="n">
-        <v>60.77990341739508</v>
+        <v>6.620786340915727</v>
       </c>
       <c r="P32" t="n">
-        <v>58.14160309908567</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.14160309908567</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="R32" t="n">
-        <v>58.14160309908567</v>
+        <v>10.84900941341709</v>
       </c>
       <c r="S32" t="n">
-        <v>58.14160309908567</v>
+        <v>60.13227394316809</v>
       </c>
       <c r="T32" t="n">
-        <v>107.4248676288383</v>
+        <v>60.13227394316809</v>
       </c>
       <c r="U32" t="n">
-        <v>107.4248676288383</v>
+        <v>109.4155384729194</v>
       </c>
       <c r="V32" t="n">
-        <v>143.7750527449179</v>
+        <v>109.4155384729194</v>
       </c>
       <c r="W32" t="n">
-        <v>143.7750527449179</v>
+        <v>121.5220834218202</v>
       </c>
       <c r="X32" t="n">
-        <v>143.7750527449179</v>
+        <v>121.5220834218202</v>
       </c>
       <c r="Y32" t="n">
-        <v>113.4073048531369</v>
+        <v>91.15433553003987</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="C33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="D33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="E33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="F33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="G33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="H33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="I33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="J33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="K33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="L33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="M33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="N33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="O33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="P33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="R33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="S33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="T33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="U33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="V33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="W33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="X33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="Y33" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="C34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="D34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="E34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="F34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="G34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="H34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="I34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="J34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="K34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="L34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="M34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="N34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="O34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="P34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="R34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="S34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="T34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="U34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="V34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="W34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="X34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.982486022606274</v>
+        <v>3.982486022606169</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.0108424542577</v>
+        <v>101.0366064167358</v>
       </c>
       <c r="C35" t="n">
-        <v>125.0108424542577</v>
+        <v>122.9798827732081</v>
       </c>
       <c r="D35" t="n">
-        <v>162.6228793025651</v>
+        <v>122.9798827732081</v>
       </c>
       <c r="E35" t="n">
-        <v>154.9400426243917</v>
+        <v>115.2970460950345</v>
       </c>
       <c r="F35" t="n">
-        <v>112.1702896906672</v>
+        <v>72.52729316131152</v>
       </c>
       <c r="G35" t="n">
-        <v>69.40053675694259</v>
+        <v>29.75754022758853</v>
       </c>
       <c r="H35" t="n">
-        <v>43.03036096170521</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="I35" t="n">
-        <v>53.35265280872837</v>
+        <v>13.70965627937371</v>
       </c>
       <c r="J35" t="n">
-        <v>84.28255792354267</v>
+        <v>13.70965627937371</v>
       </c>
       <c r="K35" t="n">
-        <v>96.09175191507333</v>
+        <v>25.51885027090397</v>
       </c>
       <c r="L35" t="n">
-        <v>88.47030027541982</v>
+        <v>17.89739863125002</v>
       </c>
       <c r="M35" t="n">
-        <v>93.17235257723395</v>
+        <v>17.89739863125002</v>
       </c>
       <c r="N35" t="n">
-        <v>99.92717508688594</v>
+        <v>24.65222114090156</v>
       </c>
       <c r="O35" t="n">
-        <v>99.92717508688594</v>
+        <v>28.37456593408095</v>
       </c>
       <c r="P35" t="n">
-        <v>96.97289378028761</v>
+        <v>25.4202846274822</v>
       </c>
       <c r="Q35" t="n">
-        <v>96.97289378028761</v>
+        <v>29.93479895658589</v>
       </c>
       <c r="R35" t="n">
-        <v>96.97289378028761</v>
+        <v>29.93479895658589</v>
       </c>
       <c r="S35" t="n">
-        <v>96.97289378028761</v>
+        <v>29.93479895658589</v>
       </c>
       <c r="T35" t="n">
-        <v>96.97289378028761</v>
+        <v>36.95816559331101</v>
       </c>
       <c r="U35" t="n">
-        <v>138.8915286306311</v>
+        <v>78.87680044365291</v>
       </c>
       <c r="V35" t="n">
-        <v>138.8915286306311</v>
+        <v>114.9172925931102</v>
       </c>
       <c r="W35" t="n">
-        <v>166.2357820965236</v>
+        <v>142.2615460590025</v>
       </c>
       <c r="X35" t="n">
-        <v>169.3682216175493</v>
+        <v>145.3939855800279</v>
       </c>
       <c r="Y35" t="n">
-        <v>138.6844927374801</v>
+        <v>114.7102566999584</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="C36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="D36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="E36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="F36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="G36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="H36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="I36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="J36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="K36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="L36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="M36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="N36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="O36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="P36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="R36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="S36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="T36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="U36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="V36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="W36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="X36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="C37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="D37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="E37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="F37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="G37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="H37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="I37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="J37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="K37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="L37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="M37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="N37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="O37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="P37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="R37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="S37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="T37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="U37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="V37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="W37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="X37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.387364432350986</v>
+        <v>3.387364432350861</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>122.1344485417649</v>
+        <v>89.42616569940299</v>
       </c>
       <c r="C38" t="n">
-        <v>122.1344485417649</v>
+        <v>89.42616569940299</v>
       </c>
       <c r="D38" t="n">
-        <v>122.1344485417649</v>
+        <v>122.1344485417605</v>
       </c>
       <c r="E38" t="n">
-        <v>114.2721998427987</v>
+        <v>114.2721998427942</v>
       </c>
       <c r="F38" t="n">
-        <v>72.08163999922022</v>
+        <v>72.0816399992179</v>
       </c>
       <c r="G38" t="n">
-        <v>29.89108015564168</v>
+        <v>29.89108015564162</v>
       </c>
       <c r="H38" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="I38" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="J38" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="K38" t="n">
-        <v>14.97484460956286</v>
+        <v>11.14235600005792</v>
       </c>
       <c r="L38" t="n">
-        <v>7.173980949116468</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="M38" t="n">
-        <v>11.70019152935206</v>
+        <v>7.867702919845983</v>
       </c>
       <c r="N38" t="n">
-        <v>11.70019152935206</v>
+        <v>7.867702919845983</v>
       </c>
       <c r="O38" t="n">
-        <v>15.24669460095276</v>
+        <v>11.41420599144629</v>
       </c>
       <c r="P38" t="n">
-        <v>12.11300127356156</v>
+        <v>8.280512664054859</v>
       </c>
       <c r="Q38" t="n">
-        <v>16.45167388108638</v>
+        <v>12.61918527157962</v>
       </c>
       <c r="R38" t="n">
-        <v>22.83266258369633</v>
+        <v>12.61918527157962</v>
       </c>
       <c r="S38" t="n">
-        <v>64.18363028638765</v>
+        <v>12.61918527157962</v>
       </c>
       <c r="T38" t="n">
-        <v>105.534597989079</v>
+        <v>53.97015297426872</v>
       </c>
       <c r="U38" t="n">
-        <v>146.8855656917703</v>
+        <v>95.32112067695795</v>
       </c>
       <c r="V38" t="n">
-        <v>163.8940539471958</v>
+        <v>131.1857711048364</v>
       </c>
       <c r="W38" t="n">
-        <v>163.8940539471958</v>
+        <v>131.1857711048364</v>
       </c>
       <c r="X38" t="n">
-        <v>166.8506517466424</v>
+        <v>134.1423689042806</v>
       </c>
       <c r="Y38" t="n">
-        <v>135.9875108457803</v>
+        <v>103.2792280034184</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="C39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="D39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="E39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="F39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="G39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="H39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="I39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="J39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="K39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="L39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="M39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="N39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="O39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="P39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="R39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="S39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="T39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="U39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="V39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="W39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="X39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="Y39" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="C40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="D40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="E40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="F40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="G40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="H40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="I40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="J40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="K40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="L40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="M40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="N40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="O40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="P40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="R40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="S40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="T40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="U40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="V40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="W40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="X40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.34149233961142</v>
+        <v>3.341492339611241</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>72.72496675849025</v>
+        <v>51.45251962702565</v>
       </c>
       <c r="C41" t="n">
-        <v>72.72496675849025</v>
+        <v>72.72496675849101</v>
       </c>
       <c r="D41" t="n">
-        <v>105.9892047211796</v>
+        <v>105.9892047211811</v>
       </c>
       <c r="E41" t="n">
-        <v>97.62191826746573</v>
+        <v>97.62191826746732</v>
       </c>
       <c r="F41" t="n">
-        <v>63.68228153377596</v>
+        <v>63.68228153377675</v>
       </c>
       <c r="G41" t="n">
         <v>29.7426448000862</v>
       </c>
       <c r="H41" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="I41" t="n">
-        <v>12.33948185132434</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="J41" t="n">
-        <v>12.33948185132434</v>
+        <v>18.06855610173431</v>
       </c>
       <c r="K41" t="n">
-        <v>12.33948185132434</v>
+        <v>29.20692086825755</v>
       </c>
       <c r="L41" t="n">
-        <v>4.033580436130237</v>
+        <v>20.90101945306334</v>
       </c>
       <c r="M41" t="n">
-        <v>8.064803512937036</v>
+        <v>24.93224252986994</v>
       </c>
       <c r="N41" t="n">
-        <v>8.064803512937036</v>
+        <v>24.93224252986994</v>
       </c>
       <c r="O41" t="n">
-        <v>11.11631908110957</v>
+        <v>27.98375809804237</v>
       </c>
       <c r="P41" t="n">
-        <v>7.477587998970653</v>
+        <v>24.3450270159034</v>
       </c>
       <c r="Q41" t="n">
-        <v>11.32127310306738</v>
+        <v>28.18871212000006</v>
       </c>
       <c r="R41" t="n">
-        <v>17.20727430224917</v>
+        <v>28.18871212000006</v>
       </c>
       <c r="S41" t="n">
-        <v>17.20727430224917</v>
+        <v>61.45295008269018</v>
       </c>
       <c r="T41" t="n">
-        <v>50.4715122649385</v>
+        <v>61.45295008269018</v>
       </c>
       <c r="U41" t="n">
-        <v>83.73575022762785</v>
+        <v>61.45295008269018</v>
       </c>
       <c r="V41" t="n">
-        <v>116.9999881903172</v>
+        <v>94.71718804538031</v>
       </c>
       <c r="W41" t="n">
-        <v>116.9999881903172</v>
+        <v>94.71718804538031</v>
       </c>
       <c r="X41" t="n">
-        <v>118.4512454728611</v>
+        <v>97.17879834139825</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.0830668172532</v>
+        <v>65.81061968578854</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="C42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="D42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="E42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="F42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="G42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="H42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="I42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="J42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="K42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="L42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="M42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="N42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="O42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="P42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="R42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="S42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="T42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="U42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="V42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="W42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="X42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="C43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="D43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="E43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="F43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="G43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="H43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="I43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="J43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="K43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="L43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="M43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="N43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="O43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="P43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="R43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="S43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="T43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="U43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="V43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="W43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="X43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.688019229308229</v>
+        <v>2.688019229308293</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>70.35833544866706</v>
+        <v>52.1460998305114</v>
       </c>
       <c r="C44" t="n">
-        <v>70.35833544866706</v>
+        <v>70.35833544866689</v>
       </c>
       <c r="D44" t="n">
-        <v>101.2476557025345</v>
+        <v>101.2476557025342</v>
       </c>
       <c r="E44" t="n">
-        <v>92.73204932891014</v>
+        <v>92.73204932890997</v>
       </c>
       <c r="F44" t="n">
-        <v>61.21555075338988</v>
+        <v>61.21555075338976</v>
       </c>
       <c r="G44" t="n">
-        <v>29.69905217786962</v>
+        <v>29.69905217786956</v>
       </c>
       <c r="H44" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="I44" t="n">
-        <v>12.00220095569291</v>
+        <v>10.95032802228574</v>
       </c>
       <c r="J44" t="n">
-        <v>12.00220095569291</v>
+        <v>10.95032802228574</v>
       </c>
       <c r="K44" t="n">
-        <v>22.99519736871211</v>
+        <v>10.95032802228574</v>
       </c>
       <c r="L44" t="n">
-        <v>14.54097603360768</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="M44" t="n">
-        <v>14.54097603360768</v>
+        <v>6.3819614104838</v>
       </c>
       <c r="N44" t="n">
-        <v>20.47960096474825</v>
+        <v>6.3819614104838</v>
       </c>
       <c r="O44" t="n">
-        <v>23.38574817941667</v>
+        <v>9.288108625151924</v>
       </c>
       <c r="P44" t="n">
-        <v>19.59869717736732</v>
+        <v>5.501057623102529</v>
       </c>
       <c r="Q44" t="n">
-        <v>23.29701392795999</v>
+        <v>5.501057623102529</v>
       </c>
       <c r="R44" t="n">
-        <v>23.29701392795999</v>
+        <v>5.501057623102529</v>
       </c>
       <c r="S44" t="n">
-        <v>54.1863341818274</v>
+        <v>36.39037787696988</v>
       </c>
       <c r="T44" t="n">
-        <v>85.0756544356948</v>
+        <v>67.27969813083723</v>
       </c>
       <c r="U44" t="n">
-        <v>115.9649746895622</v>
+        <v>98.16901838470459</v>
       </c>
       <c r="V44" t="n">
-        <v>115.9649746895622</v>
+        <v>98.16901838470459</v>
       </c>
       <c r="W44" t="n">
-        <v>116.3812540028615</v>
+        <v>98.16901838470459</v>
       </c>
       <c r="X44" t="n">
-        <v>116.3812540028615</v>
+        <v>98.16901838470459</v>
       </c>
       <c r="Y44" t="n">
-        <v>84.86475542734048</v>
+        <v>66.65251980918477</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="C45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="D45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="E45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="F45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="G45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="H45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="I45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="J45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="K45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="L45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="M45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="N45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="O45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="P45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="R45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="S45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="T45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="U45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="V45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="W45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="X45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="C46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="D46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="E46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="F46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="G46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="H46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="I46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="J46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="K46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="L46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="M46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="N46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="O46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="P46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="R46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="S46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="T46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="U46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="V46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="W46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="X46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.496106687181205</v>
+        <v>2.4961066871812</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.61217528685815</v>
+        <v>10.61217528685768</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>4.68126981785959</v>
+        <v>4.681269817859118</v>
       </c>
       <c r="F11" t="n">
-        <v>48.8731440922174</v>
+        <v>48.87314409221693</v>
       </c>
       <c r="G11" t="n">
-        <v>78.74850482532754</v>
+        <v>81.28151004634999</v>
       </c>
       <c r="H11" t="n">
-        <v>25.71474076477615</v>
+        <v>23.18173554375255</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>4.620498629724995</v>
+        <v>4.620498629724693</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>27.45215309773655</v>
+        <v>27.45215309773607</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.89193740690216</v>
+        <v>9.891937406901022</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.9610319379036</v>
+        <v>3.961031937902462</v>
       </c>
       <c r="F14" t="n">
-        <v>50.63024549689306</v>
+        <v>48.15290621226028</v>
       </c>
       <c r="G14" t="n">
-        <v>78.02826694537156</v>
+        <v>80.50560623000199</v>
       </c>
       <c r="H14" t="n">
-        <v>22.46149766379703</v>
+        <v>22.4614976637959</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23522,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3.900260749769005</v>
+        <v>3.900260749768037</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.73191521778055</v>
+        <v>26.73191521777942</v>
       </c>
     </row>
     <row r="15">
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>35.54924085036536</v>
+        <v>35.5492408503643</v>
       </c>
       <c r="G20" t="n">
-        <v>65.42460158347551</v>
+        <v>65.42460158347444</v>
       </c>
       <c r="H20" t="n">
-        <v>9.857832301900988</v>
+        <v>9.857832301899919</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.12824985588451</v>
+        <v>14.12824985588344</v>
       </c>
     </row>
     <row r="21">
@@ -24452,10 +24452,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>21.42099099448086</v>
+        <v>21.4209909944808</v>
       </c>
       <c r="G26" t="n">
-        <v>51.296351727591</v>
+        <v>51.29635172759095</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24926,10 +24926,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.703986124764896</v>
+        <v>1.703986124766274</v>
       </c>
       <c r="G32" t="n">
-        <v>31.57934685787504</v>
+        <v>31.57934685787642</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>9.455827181362068</v>
+        <v>9.455827181363929</v>
       </c>
       <c r="G35" t="n">
-        <v>39.3311879144722</v>
+        <v>39.33118791447406</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25400,10 +25400,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>10.2068462411916</v>
+        <v>10.20684624119394</v>
       </c>
       <c r="G38" t="n">
-        <v>40.08220697430174</v>
+        <v>40.08220697430409</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25637,10 +25637,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>18.8752474971817</v>
+        <v>18.87524749718085</v>
       </c>
       <c r="G41" t="n">
-        <v>48.75060823029185</v>
+        <v>48.75060823029099</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1204327.981884966</v>
+        <v>1204327.981884967</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1219141.259503001</v>
+        <v>1219141.259503</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1218994.795765953</v>
+        <v>1218994.795765952</v>
       </c>
     </row>
     <row r="15">
@@ -26317,43 +26317,43 @@
         <v>523420.4003123841</v>
       </c>
       <c r="D2" t="n">
-        <v>523420.400312384</v>
+        <v>523420.4003123841</v>
       </c>
       <c r="E2" t="n">
         <v>516140.5636649855</v>
       </c>
       <c r="F2" t="n">
-        <v>516353.5811314909</v>
+        <v>516353.5811314911</v>
       </c>
       <c r="G2" t="n">
-        <v>518852.5528827856</v>
+        <v>518852.5528827854</v>
       </c>
       <c r="H2" t="n">
         <v>519305.8453277425</v>
       </c>
       <c r="I2" t="n">
-        <v>521489.0628240711</v>
+        <v>521489.062824071</v>
       </c>
       <c r="J2" t="n">
-        <v>521489.062824071</v>
+        <v>521489.0628240709</v>
       </c>
       <c r="K2" t="n">
-        <v>521489.062824071</v>
+        <v>521489.0628240709</v>
       </c>
       <c r="L2" t="n">
-        <v>523137.0100910819</v>
+        <v>523137.0100910817</v>
       </c>
       <c r="M2" t="n">
         <v>522489.1112155715</v>
       </c>
       <c r="N2" t="n">
-        <v>522426.3410425511</v>
+        <v>522426.3410425506</v>
       </c>
       <c r="O2" t="n">
-        <v>521701.8360655754</v>
+        <v>521701.8360655751</v>
       </c>
       <c r="P2" t="n">
-        <v>521489.0628240712</v>
+        <v>521489.0628240711</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>313501.2384478711</v>
+        <v>313501.2384478712</v>
       </c>
       <c r="F3" t="n">
-        <v>281.7637171228382</v>
+        <v>281.7637171230291</v>
       </c>
       <c r="G3" t="n">
-        <v>3617.658540457905</v>
+        <v>3617.658540457483</v>
       </c>
       <c r="H3" t="n">
-        <v>897.5035812092373</v>
+        <v>897.5035812096521</v>
       </c>
       <c r="I3" t="n">
-        <v>4561.672705975629</v>
+        <v>4561.672705975285</v>
       </c>
       <c r="J3" t="n">
-        <v>272094.750640456</v>
+        <v>272094.7506404562</v>
       </c>
       <c r="K3" t="n">
-        <v>117.4693765691107</v>
+        <v>117.469376569079</v>
       </c>
       <c r="L3" t="n">
-        <v>6990.994768787598</v>
+        <v>6990.994768787036</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1063.232046678422</v>
+        <v>1063.232046678468</v>
       </c>
       <c r="O3" t="n">
-        <v>271694.7607386958</v>
+        <v>271694.7607386961</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,28 +26424,28 @@
         <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>544187.946581812</v>
+        <v>544187.9465818123</v>
       </c>
       <c r="F4" t="n">
-        <v>544423.3236522868</v>
+        <v>544423.3236522872</v>
       </c>
       <c r="G4" t="n">
-        <v>547186.3014893166</v>
+        <v>547186.3014893167</v>
       </c>
       <c r="H4" t="n">
-        <v>547687.8238684004</v>
+        <v>547687.8238684005</v>
       </c>
       <c r="I4" t="n">
-        <v>550103.3338664112</v>
+        <v>550103.3338664114</v>
       </c>
       <c r="J4" t="n">
-        <v>550103.3338664112</v>
+        <v>550103.3338664111</v>
       </c>
       <c r="K4" t="n">
         <v>550103.3338664112</v>
       </c>
       <c r="L4" t="n">
-        <v>551926.6213338089</v>
+        <v>551926.6213338088</v>
       </c>
       <c r="M4" t="n">
         <v>551208.6645716453</v>
@@ -26454,7 +26454,7 @@
         <v>551140.3376974373</v>
       </c>
       <c r="O4" t="n">
-        <v>550338.7460014947</v>
+        <v>550338.746001495</v>
       </c>
       <c r="P4" t="n">
         <v>550103.3338664112</v>
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>30108.9875422276</v>
+        <v>30108.98754222763</v>
       </c>
       <c r="F5" t="n">
-        <v>30156.19474898316</v>
+        <v>30156.19474898323</v>
       </c>
       <c r="G5" t="n">
         <v>30797.72921229845</v>
       </c>
       <c r="H5" t="n">
-        <v>30969.88130796242</v>
+        <v>30969.88130796248</v>
       </c>
       <c r="I5" t="n">
         <v>31863.9373232466</v>
@@ -26494,22 +26494,22 @@
         <v>31863.93732324661</v>
       </c>
       <c r="K5" t="n">
-        <v>31863.93732324661</v>
+        <v>31863.9373232466</v>
       </c>
       <c r="L5" t="n">
-        <v>33089.19419618868</v>
+        <v>33089.19419618859</v>
       </c>
       <c r="M5" t="n">
-        <v>32610.60322394724</v>
+        <v>32610.60322394712</v>
       </c>
       <c r="N5" t="n">
-        <v>32560.80827418089</v>
+        <v>32560.80827418074</v>
       </c>
       <c r="O5" t="n">
-        <v>32022.13527153663</v>
+        <v>32022.13527153667</v>
       </c>
       <c r="P5" t="n">
-        <v>31863.93732324661</v>
+        <v>31863.9373232466</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-79256.97336195208</v>
+        <v>-79262.24726797128</v>
       </c>
       <c r="C6" t="n">
-        <v>-79256.97336195208</v>
+        <v>-79262.24726797134</v>
       </c>
       <c r="D6" t="n">
-        <v>-79256.97336195214</v>
+        <v>-79262.24726797134</v>
       </c>
       <c r="E6" t="n">
-        <v>-371657.6089069252</v>
+        <v>-371697.548701742</v>
       </c>
       <c r="F6" t="n">
-        <v>-58507.70098690191</v>
+        <v>-58546.6264128307</v>
       </c>
       <c r="G6" t="n">
-        <v>-62749.13635928741</v>
+        <v>-62776.16191973315</v>
       </c>
       <c r="H6" t="n">
-        <v>-60249.36342982961</v>
+        <v>-60274.23045482387</v>
       </c>
       <c r="I6" t="n">
-        <v>-65039.8810715624</v>
+        <v>-65054.35182276397</v>
       </c>
       <c r="J6" t="n">
-        <v>-332572.9590060428</v>
+        <v>-332587.4297572448</v>
       </c>
       <c r="K6" t="n">
-        <v>-60595.67774215589</v>
+        <v>-60610.1484933577</v>
       </c>
       <c r="L6" t="n">
-        <v>-68869.80020770323</v>
+        <v>-68876.42359096622</v>
       </c>
       <c r="M6" t="n">
-        <v>-61330.15658002104</v>
+        <v>-61339.86519602498</v>
       </c>
       <c r="N6" t="n">
-        <v>-62338.03697574549</v>
+        <v>-62348.04449733581</v>
       </c>
       <c r="O6" t="n">
-        <v>-332353.8059461518</v>
+        <v>-332367.2634914425</v>
       </c>
       <c r="P6" t="n">
-        <v>-60478.2083655867</v>
+        <v>-60492.67911678844</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>340.1184383005699</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="F2" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="G2" t="n">
         <v>341.9887985493936</v>
       </c>
       <c r="H2" t="n">
-        <v>342.3016197277996</v>
+        <v>342.3016197277998</v>
       </c>
       <c r="I2" t="n">
-        <v>343.8082776867326</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="J2" t="n">
         <v>343.8082776867327</v>
@@ -26716,16 +26716,16 @@
         <v>344.9455408636351</v>
       </c>
       <c r="M2" t="n">
-        <v>344.6327196852291</v>
+        <v>344.6327196852288</v>
       </c>
       <c r="N2" t="n">
-        <v>344.4551017846441</v>
+        <v>344.455101784644</v>
       </c>
       <c r="O2" t="n">
         <v>343.9551144074439</v>
       </c>
       <c r="P2" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.77422679554911</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="F3" t="n">
-        <v>48.77422679554911</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="G3" t="n">
-        <v>48.77422679554911</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="H3" t="n">
-        <v>48.77422679554911</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77422679554911</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="J3" t="n">
-        <v>48.77422679554911</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="K3" t="n">
-        <v>48.77422679554911</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="L3" t="n">
-        <v>48.77422679554911</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="M3" t="n">
-        <v>48.77422679554911</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="N3" t="n">
-        <v>48.77422679554911</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="O3" t="n">
-        <v>48.77422679554911</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="P3" t="n">
-        <v>48.77422679554934</v>
+        <v>48.77422679554903</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.4390198781911</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="F4" t="n">
-        <v>8.012421037435685</v>
+        <v>8.012421037436596</v>
       </c>
       <c r="G4" t="n">
         <v>16.18083491622565</v>
       </c>
       <c r="H4" t="n">
-        <v>18.57974169281347</v>
+        <v>18.57974169281437</v>
       </c>
       <c r="I4" t="n">
-        <v>31.201333589765</v>
+        <v>31.20133358976494</v>
       </c>
       <c r="J4" t="n">
         <v>31.20133358976494</v>
@@ -26817,19 +26817,19 @@
         <v>31.20133358976494</v>
       </c>
       <c r="L4" t="n">
-        <v>49.78107528257843</v>
+        <v>49.78107528257711</v>
       </c>
       <c r="M4" t="n">
-        <v>42.34205540438732</v>
+        <v>42.34205540438576</v>
       </c>
       <c r="N4" t="n">
-        <v>41.76865424514274</v>
+        <v>41.76865424514051</v>
       </c>
       <c r="O4" t="n">
-        <v>33.60024036635286</v>
+        <v>33.60024036635366</v>
       </c>
       <c r="P4" t="n">
-        <v>31.20133358976506</v>
+        <v>31.201333589765</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>340.1184383005699</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="F2" t="n">
         <v>0.1468367207114056</v>
       </c>
       <c r="G2" t="n">
-        <v>1.723523528112196</v>
+        <v>1.723523528111969</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3128211784060682</v>
+        <v>0.3128211784062955</v>
       </c>
       <c r="I2" t="n">
-        <v>1.506657958932976</v>
+        <v>1.506657958932863</v>
       </c>
       <c r="J2" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1468367207113884</v>
+        <v>0.1468367207113488</v>
       </c>
       <c r="L2" t="n">
-        <v>2.860786705014675</v>
+        <v>2.860786705014391</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.329040058348028</v>
+        <v>1.329040058348085</v>
       </c>
       <c r="O2" t="n">
-        <v>339.6184509233698</v>
+        <v>339.6184509233702</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.77422679554911</v>
+        <v>48.77422679554888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,19 +27018,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.4390198781911</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5734011592445842</v>
+        <v>0.5734011592452504</v>
       </c>
       <c r="G4" t="n">
-        <v>8.168413878789964</v>
+        <v>8.168413878789089</v>
       </c>
       <c r="H4" t="n">
-        <v>2.398906776587818</v>
+        <v>2.398906776588682</v>
       </c>
       <c r="I4" t="n">
-        <v>12.62159189695153</v>
+        <v>12.62159189695058</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.57974169281349</v>
+        <v>18.57974169281216</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>340.1184383005699</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="K2" t="n">
         <v>0.1468367207114056</v>
       </c>
       <c r="L2" t="n">
-        <v>1.723523528112196</v>
+        <v>1.723523528111969</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3128211784060682</v>
+        <v>0.3128211784062955</v>
       </c>
       <c r="N2" t="n">
-        <v>1.506657958932976</v>
+        <v>1.506657958932863</v>
       </c>
       <c r="O2" t="n">
-        <v>340.11843830057</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1468367207113884</v>
+        <v>0.1468367207113488</v>
       </c>
     </row>
     <row r="3">
@@ -27264,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.4390198781911</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5734011592445842</v>
+        <v>0.5734011592452504</v>
       </c>
       <c r="O4" t="n">
-        <v>8.168413878789964</v>
+        <v>8.168413878789089</v>
       </c>
       <c r="P4" t="n">
-        <v>2.398906776587818</v>
+        <v>2.398906776588682</v>
       </c>
     </row>
   </sheetData>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>340.1184383005699</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="C11" t="n">
-        <v>329.9068139508216</v>
+        <v>329.9068139508218</v>
       </c>
       <c r="D11" t="n">
-        <v>314.0797831509885</v>
+        <v>314.0797831509888</v>
       </c>
       <c r="E11" t="n">
-        <v>340.1184383005699</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="F11" t="n">
-        <v>340.1184383005699</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="G11" t="n">
-        <v>340.1184383005699</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="H11" t="n">
-        <v>340.1184383005699</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="I11" t="n">
-        <v>337.7425240874043</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="J11" t="n">
-        <v>284.9967995320916</v>
+        <v>277.6370456496196</v>
       </c>
       <c r="K11" t="n">
-        <v>340.1184383005699</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="L11" t="n">
-        <v>340.1184383005699</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="M11" t="n">
-        <v>340.1184383005699</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="N11" t="n">
-        <v>340.1184383005699</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="O11" t="n">
-        <v>340.1184383005699</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="P11" t="n">
-        <v>340.1184383005699</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="Q11" t="n">
-        <v>340.1184383005699</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="R11" t="n">
-        <v>340.1184383005699</v>
+        <v>338.0096586506947</v>
       </c>
       <c r="S11" t="n">
-        <v>283.4299048248382</v>
+        <v>290.5225241440202</v>
       </c>
       <c r="T11" t="n">
-        <v>232.9448502821424</v>
+        <v>232.9448502821426</v>
       </c>
       <c r="U11" t="n">
-        <v>248.0272000066465</v>
+        <v>255.4662198848378</v>
       </c>
       <c r="V11" t="n">
-        <v>315.6672020387155</v>
+        <v>315.6672020387157</v>
       </c>
       <c r="W11" t="n">
-        <v>324.451281517064</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X11" t="n">
-        <v>340.1184383005699</v>
+        <v>340.1184383005702</v>
       </c>
       <c r="Y11" t="n">
-        <v>340.1184383005699</v>
+        <v>340.1184383005702</v>
       </c>
     </row>
     <row r="12">
@@ -28190,28 +28190,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J12" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K12" t="n">
-        <v>207.051576937751</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L12" t="n">
-        <v>202.371922826129</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M12" t="n">
-        <v>204.3858515197055</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N12" t="n">
-        <v>186.1447833170273</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O12" t="n">
-        <v>206.7579964582774</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P12" t="n">
-        <v>197.6750885933374</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q12" t="n">
-        <v>214.0786366949014</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R12" t="n">
         <v>230.2155339931604</v>
@@ -28272,22 +28272,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K13" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L13" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M13" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N13" t="n">
-        <v>194.0297218928977</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O13" t="n">
         <v>212.5600441937987</v>
       </c>
       <c r="P13" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q13" t="n">
         <v>238.8307194017216</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="C14" t="n">
-        <v>330.4802151100661</v>
+        <v>330.480215110067</v>
       </c>
       <c r="D14" t="n">
-        <v>314.6531843102331</v>
+        <v>314.653184310234</v>
       </c>
       <c r="E14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="F14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="G14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="H14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="I14" t="n">
-        <v>340.2652750212814</v>
+        <v>339.9733176513182</v>
       </c>
       <c r="J14" t="n">
-        <v>284.8961402057107</v>
+        <v>285.5702006913372</v>
       </c>
       <c r="K14" t="n">
-        <v>332.7042409059052</v>
+        <v>332.7042409059053</v>
       </c>
       <c r="L14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="M14" t="n">
-        <v>340.2652750212814</v>
+        <v>339.883171905619</v>
       </c>
       <c r="N14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="O14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="P14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="Q14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="R14" t="n">
         <v>338.0096586506947</v>
       </c>
       <c r="S14" t="n">
-        <v>290.9259208589474</v>
+        <v>283.4299048248382</v>
       </c>
       <c r="T14" t="n">
-        <v>233.518251441387</v>
+        <v>233.5182514413879</v>
       </c>
       <c r="U14" t="n">
-        <v>256.0396210440822</v>
+        <v>255.5232160407564</v>
       </c>
       <c r="V14" t="n">
-        <v>316.2406031979601</v>
+        <v>316.240603197961</v>
       </c>
       <c r="W14" t="n">
-        <v>317.0122616388729</v>
+        <v>325.0246826763095</v>
       </c>
       <c r="X14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
       <c r="Y14" t="n">
-        <v>340.2652750212814</v>
+        <v>340.2652750212816</v>
       </c>
     </row>
     <row r="15">
@@ -28427,28 +28427,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J15" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K15" t="n">
-        <v>207.051576937751</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L15" t="n">
-        <v>202.371922826129</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M15" t="n">
-        <v>204.3858515197055</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N15" t="n">
-        <v>186.1447833170273</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O15" t="n">
-        <v>206.7579964582774</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P15" t="n">
-        <v>197.6750885933374</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q15" t="n">
-        <v>214.0786366949014</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R15" t="n">
         <v>230.2155339931604</v>
@@ -28509,22 +28509,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K16" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L16" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M16" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N16" t="n">
-        <v>194.0297218928977</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O16" t="n">
         <v>212.5600441937987</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q16" t="n">
         <v>238.8307194017216</v>
@@ -28567,7 +28567,7 @@
         <v>338.6486289888561</v>
       </c>
       <c r="D17" t="n">
-        <v>319.3952613689855</v>
+        <v>322.8215981890231</v>
       </c>
       <c r="E17" t="n">
         <v>341.9887985493936</v>
@@ -28582,13 +28582,13 @@
         <v>341.9887985493936</v>
       </c>
       <c r="I17" t="n">
-        <v>334.2061622639935</v>
+        <v>341.9887985493936</v>
       </c>
       <c r="J17" t="n">
-        <v>293.7386145701261</v>
+        <v>293.7386145701262</v>
       </c>
       <c r="K17" t="n">
-        <v>341.9887985493936</v>
+        <v>332.7042409059053</v>
       </c>
       <c r="L17" t="n">
         <v>341.9887985493936</v>
@@ -28597,7 +28597,7 @@
         <v>341.9887985493936</v>
       </c>
       <c r="N17" t="n">
-        <v>341.9887985493936</v>
+        <v>337.8096666451767</v>
       </c>
       <c r="O17" t="n">
         <v>341.9887985493936</v>
@@ -28609,10 +28609,10 @@
         <v>341.9887985493936</v>
       </c>
       <c r="R17" t="n">
-        <v>338.0096586506947</v>
+        <v>341.9887985493936</v>
       </c>
       <c r="S17" t="n">
-        <v>299.6107397410639</v>
+        <v>294.1886177695126</v>
       </c>
       <c r="T17" t="n">
         <v>225.5058304039513</v>
@@ -28624,10 +28624,10 @@
         <v>324.40901707675</v>
       </c>
       <c r="W17" t="n">
-        <v>330.0155572284094</v>
+        <v>333.1930965550986</v>
       </c>
       <c r="X17" t="n">
-        <v>341.4686393609607</v>
+        <v>341.9887985493936</v>
       </c>
       <c r="Y17" t="n">
         <v>341.9887985493936</v>
@@ -28664,28 +28664,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J18" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K18" t="n">
-        <v>207.051576937751</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L18" t="n">
-        <v>202.371922826129</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M18" t="n">
-        <v>204.3858515197055</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N18" t="n">
-        <v>186.1447833170273</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O18" t="n">
-        <v>206.7579964582774</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P18" t="n">
-        <v>197.6750885933374</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q18" t="n">
-        <v>214.0786366949014</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R18" t="n">
         <v>230.2155339931604</v>
@@ -28746,22 +28746,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K19" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L19" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M19" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N19" t="n">
-        <v>194.0297218928977</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O19" t="n">
         <v>212.5600441937987</v>
       </c>
       <c r="P19" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q19" t="n">
         <v>238.8307194017216</v>
@@ -28798,76 +28798,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>342.3016197277996</v>
+        <v>342.3016197277998</v>
       </c>
       <c r="C20" t="n">
-        <v>341.0475357654439</v>
+        <v>341.0475357654448</v>
       </c>
       <c r="D20" t="n">
-        <v>325.2205049656109</v>
+        <v>316.6497647862102</v>
       </c>
       <c r="E20" t="n">
-        <v>342.3016197277996</v>
+        <v>342.3016197277998</v>
       </c>
       <c r="F20" t="n">
-        <v>342.3016197277996</v>
+        <v>342.3016197277998</v>
       </c>
       <c r="G20" t="n">
-        <v>342.3016197277996</v>
+        <v>342.3016197277998</v>
       </c>
       <c r="H20" t="n">
-        <v>342.3016197277996</v>
+        <v>342.3016197277998</v>
       </c>
       <c r="I20" t="n">
-        <v>334.2061622639935</v>
+        <v>342.3016197277998</v>
       </c>
       <c r="J20" t="n">
-        <v>296.1375213467139</v>
+        <v>296.1375213467149</v>
       </c>
       <c r="K20" t="n">
-        <v>342.3016197277996</v>
+        <v>342.3016197277998</v>
       </c>
       <c r="L20" t="n">
-        <v>342.3016197277996</v>
+        <v>342.3016197277998</v>
       </c>
       <c r="M20" t="n">
-        <v>342.3016197277996</v>
+        <v>342.3016197277998</v>
       </c>
       <c r="N20" t="n">
-        <v>342.3016197277996</v>
+        <v>342.3016197277998</v>
       </c>
       <c r="O20" t="n">
-        <v>342.3016197277996</v>
+        <v>340.872775449694</v>
       </c>
       <c r="P20" t="n">
-        <v>342.3016197277996</v>
+        <v>342.3016197277998</v>
       </c>
       <c r="Q20" t="n">
-        <v>342.3016197277996</v>
+        <v>340.0726042012856</v>
       </c>
       <c r="R20" t="n">
-        <v>342.3016197277996</v>
+        <v>342.3016197277998</v>
       </c>
       <c r="S20" t="n">
-        <v>302.0096465176517</v>
+        <v>302.0096465176526</v>
       </c>
       <c r="T20" t="n">
         <v>225.5058304039513</v>
       </c>
       <c r="U20" t="n">
-        <v>248.0272000066465</v>
+        <v>251.5674864203966</v>
       </c>
       <c r="V20" t="n">
         <v>308.2281821605244</v>
       </c>
       <c r="W20" t="n">
-        <v>335.5920033316864</v>
+        <v>335.5920033316873</v>
       </c>
       <c r="X20" t="n">
-        <v>341.7087636213382</v>
+        <v>342.3016197277998</v>
       </c>
       <c r="Y20" t="n">
-        <v>342.3016197277996</v>
+        <v>342.3016197277998</v>
       </c>
     </row>
     <row r="21">
@@ -28892,7 +28892,7 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>170.2462805163867</v>
+        <v>170.2462805163866</v>
       </c>
       <c r="H21" t="n">
         <v>155.5454465540429</v>
@@ -28901,28 +28901,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J21" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K21" t="n">
-        <v>207.051576937751</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L21" t="n">
-        <v>202.371922826129</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M21" t="n">
-        <v>204.3858515197055</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N21" t="n">
-        <v>186.1447833170273</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O21" t="n">
-        <v>206.7579964582774</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P21" t="n">
-        <v>197.6750885933374</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q21" t="n">
-        <v>214.0786366949014</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R21" t="n">
         <v>230.2155339931604</v>
@@ -28983,22 +28983,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K22" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L22" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M22" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N22" t="n">
-        <v>194.0297218928977</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O22" t="n">
         <v>212.5600441937987</v>
       </c>
       <c r="P22" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q22" t="n">
         <v>238.8307194017216</v>
@@ -29035,67 +29035,67 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>343.8082776867326</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="C23" t="n">
-        <v>343.8082776867326</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="D23" t="n">
-        <v>337.8420968625624</v>
+        <v>307.9924411714911</v>
       </c>
       <c r="E23" t="n">
-        <v>343.8082776867326</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="F23" t="n">
-        <v>343.8082776867326</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="G23" t="n">
-        <v>343.8082776867326</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="H23" t="n">
-        <v>343.8082776867326</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="I23" t="n">
-        <v>334.2061622639935</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="J23" t="n">
         <v>308.7591132436655</v>
       </c>
       <c r="K23" t="n">
-        <v>332.7042409059052</v>
+        <v>332.7042409059053</v>
       </c>
       <c r="L23" t="n">
-        <v>343.8082776867326</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8831719056188</v>
+        <v>339.883171905619</v>
       </c>
       <c r="N23" t="n">
-        <v>343.8082776867326</v>
+        <v>339.3118128320975</v>
       </c>
       <c r="O23" t="n">
-        <v>341.5314848804536</v>
+        <v>340.872775449694</v>
       </c>
       <c r="P23" t="n">
-        <v>343.8082776867326</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="Q23" t="n">
         <v>340.0726042012856</v>
       </c>
       <c r="R23" t="n">
-        <v>343.8082776867326</v>
+        <v>338.0096586506947</v>
       </c>
       <c r="S23" t="n">
         <v>283.4299048248382</v>
       </c>
       <c r="T23" t="n">
-        <v>256.7071639937163</v>
+        <v>256.7071639937162</v>
       </c>
       <c r="U23" t="n">
-        <v>248.0272000066465</v>
+        <v>279.2285335964115</v>
       </c>
       <c r="V23" t="n">
-        <v>339.4295157502894</v>
+        <v>339.4295157502893</v>
       </c>
       <c r="W23" t="n">
         <v>317.0122616388729</v>
@@ -29104,7 +29104,7 @@
         <v>341.4686393609607</v>
       </c>
       <c r="Y23" t="n">
-        <v>343.8082776867326</v>
+        <v>343.8082776867327</v>
       </c>
     </row>
     <row r="24">
@@ -29138,28 +29138,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J24" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K24" t="n">
-        <v>207.051576937751</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L24" t="n">
-        <v>202.371922826129</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M24" t="n">
-        <v>204.3858515197055</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N24" t="n">
-        <v>186.1447833170273</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O24" t="n">
-        <v>206.7579964582774</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P24" t="n">
-        <v>197.6750885933374</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q24" t="n">
-        <v>214.0786366949014</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R24" t="n">
         <v>230.2155339931604</v>
@@ -29220,22 +29220,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K25" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L25" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M25" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N25" t="n">
-        <v>194.0297218928977</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O25" t="n">
         <v>212.5600441937987</v>
       </c>
       <c r="P25" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q25" t="n">
         <v>238.8307194017216</v>
@@ -29275,7 +29275,7 @@
         <v>343.8082776867327</v>
       </c>
       <c r="C26" t="n">
-        <v>322.4677940726305</v>
+        <v>338.7703206628244</v>
       </c>
       <c r="D26" t="n">
         <v>337.8420968625624</v>
@@ -29293,7 +29293,7 @@
         <v>343.8082776867327</v>
       </c>
       <c r="I26" t="n">
-        <v>343.8082776867327</v>
+        <v>334.2061622639936</v>
       </c>
       <c r="J26" t="n">
         <v>277.5577796539005</v>
@@ -29305,19 +29305,19 @@
         <v>343.8082776867327</v>
       </c>
       <c r="M26" t="n">
-        <v>343.8082776867327</v>
+        <v>341.1440566774726</v>
       </c>
       <c r="N26" t="n">
-        <v>343.8082776867327</v>
+        <v>337.8096666451767</v>
       </c>
       <c r="O26" t="n">
-        <v>340.8727754496939</v>
+        <v>340.872775449694</v>
       </c>
       <c r="P26" t="n">
         <v>343.8082776867327</v>
       </c>
       <c r="Q26" t="n">
-        <v>340.0726042012856</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="R26" t="n">
         <v>343.8082776867327</v>
@@ -29326,7 +29326,7 @@
         <v>314.6312384146032</v>
       </c>
       <c r="T26" t="n">
-        <v>256.1407782700316</v>
+        <v>256.7071639937162</v>
       </c>
       <c r="U26" t="n">
         <v>248.0272000066465</v>
@@ -29338,7 +29338,7 @@
         <v>343.8082776867327</v>
       </c>
       <c r="X26" t="n">
-        <v>343.8082776867327</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y26" t="n">
         <v>343.8082776867327</v>
@@ -29375,28 +29375,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J27" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K27" t="n">
-        <v>207.051576937751</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L27" t="n">
-        <v>202.371922826129</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M27" t="n">
-        <v>204.3858515197055</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N27" t="n">
-        <v>186.1447833170273</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O27" t="n">
-        <v>206.7579964582774</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P27" t="n">
-        <v>197.6750885933374</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q27" t="n">
-        <v>214.0786366949014</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R27" t="n">
         <v>230.2155339931604</v>
@@ -29457,22 +29457,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K28" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L28" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M28" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N28" t="n">
-        <v>194.0297218928977</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O28" t="n">
         <v>212.5600441937987</v>
       </c>
       <c r="P28" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q28" t="n">
         <v>238.8307194017216</v>
@@ -29515,7 +29515,7 @@
         <v>343.8082776867327</v>
       </c>
       <c r="D29" t="n">
-        <v>318.8661672250292</v>
+        <v>307.9924411714901</v>
       </c>
       <c r="E29" t="n">
         <v>343.8082776867327</v>
@@ -29530,25 +29530,25 @@
         <v>343.8082776867327</v>
       </c>
       <c r="I29" t="n">
-        <v>334.2061622639935</v>
+        <v>343.8082776867327</v>
       </c>
       <c r="J29" t="n">
-        <v>308.7591132436654</v>
+        <v>308.7591132436655</v>
       </c>
       <c r="K29" t="n">
-        <v>343.8082776867327</v>
+        <v>332.7042409059053</v>
       </c>
       <c r="L29" t="n">
         <v>343.8082776867327</v>
       </c>
       <c r="M29" t="n">
-        <v>343.8082776867327</v>
+        <v>339.883171905619</v>
       </c>
       <c r="N29" t="n">
-        <v>343.8082776867327</v>
+        <v>337.8096666451767</v>
       </c>
       <c r="O29" t="n">
-        <v>343.8082776867327</v>
+        <v>340.872775449694</v>
       </c>
       <c r="P29" t="n">
         <v>343.8082776867327</v>
@@ -29557,25 +29557,25 @@
         <v>343.8082776867327</v>
       </c>
       <c r="R29" t="n">
-        <v>343.8082776867327</v>
+        <v>338.0096586506947</v>
       </c>
       <c r="S29" t="n">
-        <v>283.4299048248382</v>
+        <v>285.6016950682173</v>
       </c>
       <c r="T29" t="n">
-        <v>225.5058304039513</v>
+        <v>256.7071639937162</v>
       </c>
       <c r="U29" t="n">
-        <v>248.0272000066465</v>
+        <v>279.2285335964115</v>
       </c>
       <c r="V29" t="n">
-        <v>339.4295157502893</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W29" t="n">
         <v>343.8082776867327</v>
       </c>
       <c r="X29" t="n">
-        <v>343.8082776867327</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y29" t="n">
         <v>343.8082776867327</v>
@@ -29612,28 +29612,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J30" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K30" t="n">
-        <v>207.051576937751</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L30" t="n">
-        <v>202.371922826129</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M30" t="n">
-        <v>204.3858515197055</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N30" t="n">
-        <v>186.1447833170273</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O30" t="n">
-        <v>206.7579964582774</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P30" t="n">
-        <v>197.6750885933374</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q30" t="n">
-        <v>214.0786366949014</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R30" t="n">
         <v>230.2155339931604</v>
@@ -29694,22 +29694,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K31" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L31" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M31" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N31" t="n">
-        <v>194.0297218928977</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O31" t="n">
         <v>212.5600441937987</v>
       </c>
       <c r="P31" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q31" t="n">
         <v>238.8307194017216</v>
@@ -29749,7 +29749,7 @@
         <v>344.9455408636351</v>
       </c>
       <c r="C32" t="n">
-        <v>322.4677940726305</v>
+        <v>344.9455408636351</v>
       </c>
       <c r="D32" t="n">
         <v>344.9455408636351</v>
@@ -29767,25 +29767,25 @@
         <v>344.9455408636351</v>
       </c>
       <c r="I32" t="n">
-        <v>344.9455408636351</v>
+        <v>334.2061622639936</v>
       </c>
       <c r="J32" t="n">
-        <v>312.1916188438819</v>
+        <v>287.6019927545817</v>
       </c>
       <c r="K32" t="n">
-        <v>344.9455408636351</v>
+        <v>332.7042409059053</v>
       </c>
       <c r="L32" t="n">
         <v>344.9455408636351</v>
       </c>
       <c r="M32" t="n">
-        <v>339.8831719056188</v>
+        <v>339.883171905619</v>
       </c>
       <c r="N32" t="n">
-        <v>344.9455408636351</v>
+        <v>337.8096666451767</v>
       </c>
       <c r="O32" t="n">
-        <v>340.8727754496939</v>
+        <v>340.872775449694</v>
       </c>
       <c r="P32" t="n">
         <v>344.9455408636351</v>
@@ -29794,22 +29794,22 @@
         <v>340.0726042012856</v>
       </c>
       <c r="R32" t="n">
-        <v>338.0096586506947</v>
+        <v>344.9455408636351</v>
       </c>
       <c r="S32" t="n">
-        <v>283.4299048248382</v>
+        <v>333.2109801074153</v>
       </c>
       <c r="T32" t="n">
-        <v>275.2869056865297</v>
+        <v>225.5058304039513</v>
       </c>
       <c r="U32" t="n">
-        <v>248.0272000066465</v>
+        <v>297.8082752892236</v>
       </c>
       <c r="V32" t="n">
-        <v>344.9455408636351</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W32" t="n">
-        <v>317.0122616388729</v>
+        <v>329.2410949205909</v>
       </c>
       <c r="X32" t="n">
         <v>341.4686393609607</v>
@@ -29849,28 +29849,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J33" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K33" t="n">
-        <v>207.051576937751</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L33" t="n">
-        <v>202.371922826129</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M33" t="n">
-        <v>204.3858515197055</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N33" t="n">
-        <v>186.1447833170273</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O33" t="n">
-        <v>206.7579964582774</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P33" t="n">
-        <v>197.6750885933374</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q33" t="n">
-        <v>214.0786366949014</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R33" t="n">
         <v>230.2155339931604</v>
@@ -29931,22 +29931,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K34" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L34" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M34" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N34" t="n">
-        <v>194.0297218928977</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O34" t="n">
         <v>212.5600441937987</v>
       </c>
       <c r="P34" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q34" t="n">
         <v>238.8307194017216</v>
@@ -29983,52 +29983,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>344.6327196852291</v>
+        <v>344.6327196852288</v>
       </c>
       <c r="C35" t="n">
-        <v>322.4677940726305</v>
+        <v>344.6327196852288</v>
       </c>
       <c r="D35" t="n">
-        <v>344.6327196852291</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E35" t="n">
-        <v>344.6327196852291</v>
+        <v>344.6327196852288</v>
       </c>
       <c r="F35" t="n">
-        <v>344.6327196852291</v>
+        <v>344.6327196852288</v>
       </c>
       <c r="G35" t="n">
-        <v>344.6327196852291</v>
+        <v>344.6327196852288</v>
       </c>
       <c r="H35" t="n">
-        <v>344.6327196852291</v>
+        <v>344.6327196852288</v>
       </c>
       <c r="I35" t="n">
-        <v>344.6327196852291</v>
+        <v>344.6327196852288</v>
       </c>
       <c r="J35" t="n">
-        <v>308.8001080527028</v>
+        <v>277.5577796539006</v>
       </c>
       <c r="K35" t="n">
-        <v>344.6327196852291</v>
+        <v>344.6327196852288</v>
       </c>
       <c r="L35" t="n">
-        <v>344.6327196852291</v>
+        <v>344.6327196852288</v>
       </c>
       <c r="M35" t="n">
-        <v>344.6327196852291</v>
+        <v>339.883171905619</v>
       </c>
       <c r="N35" t="n">
-        <v>344.6327196852291</v>
+        <v>344.6327196852288</v>
       </c>
       <c r="O35" t="n">
-        <v>340.8727754496939</v>
+        <v>344.6327196852288</v>
       </c>
       <c r="P35" t="n">
-        <v>344.6327196852291</v>
+        <v>344.6327196852288</v>
       </c>
       <c r="Q35" t="n">
-        <v>340.0726042012856</v>
+        <v>344.6327196852288</v>
       </c>
       <c r="R35" t="n">
         <v>338.0096586506947</v>
@@ -30037,22 +30037,22 @@
         <v>283.4299048248382</v>
       </c>
       <c r="T35" t="n">
-        <v>225.5058304039513</v>
+        <v>232.6001401380171</v>
       </c>
       <c r="U35" t="n">
-        <v>290.3692554110338</v>
+        <v>290.3692554110322</v>
       </c>
       <c r="V35" t="n">
-        <v>308.2281821605244</v>
+        <v>344.6327196852288</v>
       </c>
       <c r="W35" t="n">
-        <v>344.6327196852291</v>
+        <v>344.6327196852288</v>
       </c>
       <c r="X35" t="n">
-        <v>344.6327196852291</v>
+        <v>344.6327196852288</v>
       </c>
       <c r="Y35" t="n">
-        <v>344.6327196852291</v>
+        <v>344.6327196852288</v>
       </c>
     </row>
     <row r="36">
@@ -30086,28 +30086,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J36" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K36" t="n">
-        <v>207.051576937751</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L36" t="n">
-        <v>202.371922826129</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M36" t="n">
-        <v>204.3858515197055</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N36" t="n">
-        <v>186.1447833170273</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O36" t="n">
-        <v>206.7579964582774</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P36" t="n">
-        <v>197.6750885933374</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q36" t="n">
-        <v>214.0786366949014</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R36" t="n">
         <v>230.2155339931604</v>
@@ -30168,22 +30168,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K37" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L37" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M37" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N37" t="n">
-        <v>194.0297218928977</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O37" t="n">
         <v>212.5600441937987</v>
       </c>
       <c r="P37" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q37" t="n">
         <v>238.8307194017216</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>344.4551017846441</v>
+        <v>344.455101784644</v>
       </c>
       <c r="C38" t="n">
         <v>322.4677940726305</v>
       </c>
       <c r="D38" t="n">
-        <v>306.6407632727974</v>
+        <v>339.6794328105323</v>
       </c>
       <c r="E38" t="n">
-        <v>344.4551017846441</v>
+        <v>344.455101784644</v>
       </c>
       <c r="F38" t="n">
-        <v>344.4551017846441</v>
+        <v>344.455101784644</v>
       </c>
       <c r="G38" t="n">
-        <v>344.4551017846441</v>
+        <v>344.455101784644</v>
       </c>
       <c r="H38" t="n">
-        <v>344.4551017846441</v>
+        <v>344.455101784644</v>
       </c>
       <c r="I38" t="n">
-        <v>334.2061622639935</v>
+        <v>334.2061622639936</v>
       </c>
       <c r="J38" t="n">
-        <v>277.5577796539005</v>
+        <v>277.5577796539006</v>
       </c>
       <c r="K38" t="n">
-        <v>344.4551017846441</v>
+        <v>340.5839011689827</v>
       </c>
       <c r="L38" t="n">
-        <v>344.4551017846441</v>
+        <v>344.455101784644</v>
       </c>
       <c r="M38" t="n">
-        <v>344.4551017846441</v>
+        <v>344.455101784644</v>
       </c>
       <c r="N38" t="n">
-        <v>337.8096666451765</v>
+        <v>337.8096666451767</v>
       </c>
       <c r="O38" t="n">
-        <v>344.4551017846441</v>
+        <v>344.455101784644</v>
       </c>
       <c r="P38" t="n">
-        <v>344.4551017846441</v>
+        <v>344.455101784644</v>
       </c>
       <c r="Q38" t="n">
-        <v>344.4551017846441</v>
+        <v>344.455101784644</v>
       </c>
       <c r="R38" t="n">
-        <v>344.4551017846441</v>
+        <v>338.0096586506947</v>
       </c>
       <c r="S38" t="n">
-        <v>325.1985590699809</v>
+        <v>283.4299048248382</v>
       </c>
       <c r="T38" t="n">
-        <v>267.274484649094</v>
+        <v>267.2744846490918</v>
       </c>
       <c r="U38" t="n">
-        <v>289.7958542517893</v>
+        <v>289.795854251787</v>
       </c>
       <c r="V38" t="n">
-        <v>325.4084733276209</v>
+        <v>344.455101784644</v>
       </c>
       <c r="W38" t="n">
         <v>317.0122616388729</v>
       </c>
       <c r="X38" t="n">
-        <v>344.4551017846441</v>
+        <v>344.455101784644</v>
       </c>
       <c r="Y38" t="n">
-        <v>344.4551017846441</v>
+        <v>344.455101784644</v>
       </c>
     </row>
     <row r="39">
@@ -30323,28 +30323,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J39" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K39" t="n">
-        <v>207.051576937751</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L39" t="n">
-        <v>202.371922826129</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M39" t="n">
-        <v>204.3858515197055</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N39" t="n">
-        <v>186.1447833170273</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O39" t="n">
-        <v>206.7579964582774</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P39" t="n">
-        <v>197.6750885933374</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q39" t="n">
-        <v>214.0786366949014</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R39" t="n">
         <v>230.2155339931604</v>
@@ -30405,22 +30405,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K40" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L40" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M40" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N40" t="n">
-        <v>194.0297218928977</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O40" t="n">
         <v>212.5600441937987</v>
       </c>
       <c r="P40" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q40" t="n">
         <v>238.8307194017216</v>
@@ -30460,10 +30460,10 @@
         <v>343.9551144074439</v>
       </c>
       <c r="C41" t="n">
-        <v>322.4677940726305</v>
+        <v>343.9551144074439</v>
       </c>
       <c r="D41" t="n">
-        <v>340.2410036391503</v>
+        <v>340.2410036391511</v>
       </c>
       <c r="E41" t="n">
         <v>343.9551144074439</v>
@@ -30478,13 +30478,13 @@
         <v>343.9551144074439</v>
       </c>
       <c r="I41" t="n">
+        <v>334.2061622639936</v>
+      </c>
+      <c r="J41" t="n">
+        <v>293.0936754846339</v>
+      </c>
+      <c r="K41" t="n">
         <v>343.9551144074439</v>
-      </c>
-      <c r="J41" t="n">
-        <v>277.5577796539005</v>
-      </c>
-      <c r="K41" t="n">
-        <v>332.7042409059052</v>
       </c>
       <c r="L41" t="n">
         <v>343.9551144074439</v>
@@ -30493,7 +30493,7 @@
         <v>343.9551144074439</v>
       </c>
       <c r="N41" t="n">
-        <v>337.8096666451765</v>
+        <v>337.8096666451767</v>
       </c>
       <c r="O41" t="n">
         <v>343.9551144074439</v>
@@ -30505,25 +30505,25 @@
         <v>343.9551144074439</v>
       </c>
       <c r="R41" t="n">
-        <v>343.9551144074439</v>
+        <v>338.0096586506947</v>
       </c>
       <c r="S41" t="n">
-        <v>283.4299048248382</v>
+        <v>317.0301451911919</v>
       </c>
       <c r="T41" t="n">
-        <v>259.1060707703041</v>
+        <v>225.5058304039513</v>
       </c>
       <c r="U41" t="n">
-        <v>281.6274403729993</v>
+        <v>248.0272000066465</v>
       </c>
       <c r="V41" t="n">
-        <v>341.8284225268773</v>
+        <v>341.8284225268781</v>
       </c>
       <c r="W41" t="n">
         <v>317.0122616388729</v>
       </c>
       <c r="X41" t="n">
-        <v>342.9345558079748</v>
+        <v>343.9551144074439</v>
       </c>
       <c r="Y41" t="n">
         <v>343.9551144074439</v>
@@ -30560,28 +30560,28 @@
         <v>158.1118139118391</v>
       </c>
       <c r="J42" t="n">
-        <v>196.1993922068907</v>
+        <v>196.1993922068908</v>
       </c>
       <c r="K42" t="n">
-        <v>207.051576937751</v>
+        <v>207.0515769377511</v>
       </c>
       <c r="L42" t="n">
-        <v>202.371922826129</v>
+        <v>202.3719228261291</v>
       </c>
       <c r="M42" t="n">
-        <v>204.3858515197055</v>
+        <v>204.3858515197057</v>
       </c>
       <c r="N42" t="n">
-        <v>186.1447833170273</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O42" t="n">
-        <v>206.7579964582774</v>
+        <v>206.7579964582775</v>
       </c>
       <c r="P42" t="n">
-        <v>197.6750885933374</v>
+        <v>197.6750885933375</v>
       </c>
       <c r="Q42" t="n">
-        <v>214.0786366949014</v>
+        <v>214.0786366949015</v>
       </c>
       <c r="R42" t="n">
         <v>230.2155339931604</v>
@@ -30642,22 +30642,22 @@
         <v>200.1492457113304</v>
       </c>
       <c r="K43" t="n">
-        <v>199.4279442247082</v>
+        <v>199.4279442247083</v>
       </c>
       <c r="L43" t="n">
-        <v>206.1113087108743</v>
+        <v>206.1113087108744</v>
       </c>
       <c r="M43" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N43" t="n">
-        <v>194.0297218928977</v>
+        <v>194.0297218928978</v>
       </c>
       <c r="O43" t="n">
         <v>212.5600441937987</v>
       </c>
       <c r="P43" t="n">
-        <v>213.1704276735044</v>
+        <v>213.1704276735045</v>
       </c>
       <c r="Q43" t="n">
         <v>238.8307194017216</v>
@@ -30694,55 +30694,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="C44" t="n">
-        <v>322.4677940726305</v>
+        <v>340.8639916667269</v>
       </c>
       <c r="D44" t="n">
-        <v>337.8420968625625</v>
+        <v>337.8420968625624</v>
       </c>
       <c r="E44" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="F44" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="G44" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="H44" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="I44" t="n">
-        <v>343.8082776867325</v>
+        <v>342.7457797742003</v>
       </c>
       <c r="J44" t="n">
-        <v>277.5577796539004</v>
+        <v>277.5577796539005</v>
       </c>
       <c r="K44" t="n">
-        <v>343.8082776867325</v>
+        <v>332.7042409059052</v>
       </c>
       <c r="L44" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="M44" t="n">
-        <v>339.8831719056187</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="N44" t="n">
-        <v>343.8082776867325</v>
+        <v>337.8096666451766</v>
       </c>
       <c r="O44" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="P44" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
       <c r="Q44" t="n">
-        <v>343.8082776867325</v>
+        <v>340.0726042012856</v>
       </c>
       <c r="R44" t="n">
-        <v>338.0096586506946</v>
+        <v>338.0096586506947</v>
       </c>
       <c r="S44" t="n">
         <v>314.6312384146032</v>
@@ -30751,19 +30751,19 @@
         <v>256.7071639937163</v>
       </c>
       <c r="U44" t="n">
-        <v>279.2285335964116</v>
+        <v>279.2285335964115</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
       </c>
       <c r="W44" t="n">
-        <v>317.4327457937208</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X44" t="n">
         <v>341.4686393609607</v>
       </c>
       <c r="Y44" t="n">
-        <v>343.8082776867325</v>
+        <v>343.8082776867326</v>
       </c>
     </row>
     <row r="45">
@@ -30800,25 +30800,25 @@
         <v>196.1993922068907</v>
       </c>
       <c r="K45" t="n">
-        <v>207.0515769377509</v>
+        <v>207.051576937751</v>
       </c>
       <c r="L45" t="n">
-        <v>202.3719228261289</v>
+        <v>202.371922826129</v>
       </c>
       <c r="M45" t="n">
-        <v>204.3858515197054</v>
+        <v>204.3858515197056</v>
       </c>
       <c r="N45" t="n">
-        <v>186.1447833170272</v>
+        <v>186.1447833170274</v>
       </c>
       <c r="O45" t="n">
-        <v>206.7579964582773</v>
+        <v>206.7579964582774</v>
       </c>
       <c r="P45" t="n">
-        <v>197.6750885933373</v>
+        <v>197.6750885933374</v>
       </c>
       <c r="Q45" t="n">
-        <v>214.0786366949013</v>
+        <v>214.0786366949014</v>
       </c>
       <c r="R45" t="n">
         <v>230.2155339931604</v>
@@ -30885,13 +30885,13 @@
         <v>206.1113087108743</v>
       </c>
       <c r="M46" t="n">
-        <v>211.9672842814868</v>
+        <v>211.9672842814869</v>
       </c>
       <c r="N46" t="n">
-        <v>194.0297218928976</v>
+        <v>194.0297218928977</v>
       </c>
       <c r="O46" t="n">
-        <v>212.5600441937986</v>
+        <v>212.5600441937987</v>
       </c>
       <c r="P46" t="n">
         <v>213.1704276735044</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1960772936504485</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H11" t="n">
-        <v>2.008076583597657</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I11" t="n">
-        <v>7.559269863458924</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J11" t="n">
-        <v>16.64181520196477</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K11" t="n">
-        <v>24.94176704218826</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L11" t="n">
-        <v>30.94246751774319</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M11" t="n">
-        <v>34.42945708869934</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N11" t="n">
-        <v>34.98656169928369</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O11" t="n">
-        <v>33.03681811054704</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P11" t="n">
-        <v>28.19615992355158</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q11" t="n">
-        <v>21.17414184469489</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R11" t="n">
-        <v>12.31684029727</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S11" t="n">
-        <v>4.4681113290596</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8583283529548389</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01568618349203588</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1049106010319358</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H12" t="n">
-        <v>1.013215541545275</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I12" t="n">
-        <v>3.612053588160949</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J12" t="n">
-        <v>9.911751126442676</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K12" t="n">
-        <v>16.94076139558237</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L12" t="n">
-        <v>22.77894431616659</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M12" t="n">
-        <v>26.58195360357426</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N12" t="n">
-        <v>27.28549881838931</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O12" t="n">
-        <v>24.96090076394484</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P12" t="n">
-        <v>20.03332345494922</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.3917461948836</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R12" t="n">
-        <v>6.513659948281071</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S12" t="n">
-        <v>1.948668400746701</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4228633436331096</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U12" t="n">
-        <v>0.006902013225785254</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08795352372967871</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7819867837056895</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I13" t="n">
-        <v>2.645002331797975</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J13" t="n">
-        <v>6.218314127688285</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K13" t="n">
-        <v>10.21860030241176</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L13" t="n">
-        <v>13.07629024613787</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M13" t="n">
-        <v>13.78711463337136</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N13" t="n">
-        <v>13.45928786310621</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O13" t="n">
-        <v>12.43183079044586</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P13" t="n">
-        <v>10.63757890636041</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.364908246127916</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R13" t="n">
-        <v>3.954710257881735</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S13" t="n">
-        <v>1.532790045361764</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3758014195722635</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U13" t="n">
-        <v>0.004797464930709754</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1960772936504485</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H14" t="n">
-        <v>2.008076583597657</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I14" t="n">
-        <v>7.559269863458924</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J14" t="n">
-        <v>16.64181520196477</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K14" t="n">
-        <v>24.94176704218826</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L14" t="n">
-        <v>30.94246751774319</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M14" t="n">
-        <v>34.42945708869934</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N14" t="n">
-        <v>34.98656169928369</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O14" t="n">
-        <v>33.03681811054704</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P14" t="n">
-        <v>28.19615992355158</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.17414184469489</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R14" t="n">
-        <v>12.31684029727</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S14" t="n">
-        <v>4.4681113290596</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8583283529548389</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01568618349203588</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1049106010319358</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H15" t="n">
-        <v>1.013215541545275</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I15" t="n">
-        <v>3.612053588160949</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J15" t="n">
-        <v>9.911751126442676</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K15" t="n">
-        <v>16.94076139558237</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L15" t="n">
-        <v>22.77894431616659</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M15" t="n">
-        <v>26.58195360357426</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N15" t="n">
-        <v>27.28549881838931</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O15" t="n">
-        <v>24.96090076394484</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P15" t="n">
-        <v>20.03332345494922</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.3917461948836</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R15" t="n">
-        <v>6.513659948281071</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S15" t="n">
-        <v>1.948668400746701</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4228633436331096</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U15" t="n">
-        <v>0.006902013225785254</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08795352372967871</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7819867837056895</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I16" t="n">
-        <v>2.645002331797975</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J16" t="n">
-        <v>6.218314127688285</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K16" t="n">
-        <v>10.21860030241176</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L16" t="n">
-        <v>13.07629024613787</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M16" t="n">
-        <v>13.78711463337136</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N16" t="n">
-        <v>13.45928786310621</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O16" t="n">
-        <v>12.43183079044586</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P16" t="n">
-        <v>10.63757890636041</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.364908246127916</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R16" t="n">
-        <v>3.954710257881735</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S16" t="n">
-        <v>1.532790045361764</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3758014195722635</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U16" t="n">
-        <v>0.004797464930709754</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1960772936504485</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H17" t="n">
-        <v>2.008076583597657</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I17" t="n">
-        <v>7.559269863458924</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J17" t="n">
-        <v>16.64181520196477</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K17" t="n">
-        <v>24.94176704218826</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L17" t="n">
-        <v>30.94246751774319</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M17" t="n">
-        <v>34.42945708869934</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N17" t="n">
-        <v>34.98656169928369</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O17" t="n">
-        <v>33.03681811054704</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P17" t="n">
-        <v>28.19615992355158</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.17414184469489</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R17" t="n">
-        <v>12.31684029727</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S17" t="n">
-        <v>4.4681113290596</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8583283529548389</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01568618349203588</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1049106010319358</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H18" t="n">
-        <v>1.013215541545275</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I18" t="n">
-        <v>3.612053588160949</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J18" t="n">
-        <v>9.911751126442676</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K18" t="n">
-        <v>16.94076139558237</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L18" t="n">
-        <v>22.77894431616659</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M18" t="n">
-        <v>26.58195360357426</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N18" t="n">
-        <v>27.28549881838931</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O18" t="n">
-        <v>24.96090076394484</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P18" t="n">
-        <v>20.03332345494922</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.3917461948836</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R18" t="n">
-        <v>6.513659948281071</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S18" t="n">
-        <v>1.948668400746701</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4228633436331096</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U18" t="n">
-        <v>0.006902013225785254</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08795352372967871</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7819867837056895</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I19" t="n">
-        <v>2.645002331797975</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J19" t="n">
-        <v>6.218314127688285</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K19" t="n">
-        <v>10.21860030241176</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L19" t="n">
-        <v>13.07629024613787</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M19" t="n">
-        <v>13.78711463337136</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N19" t="n">
-        <v>13.45928786310621</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O19" t="n">
-        <v>12.43183079044586</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P19" t="n">
-        <v>10.63757890636041</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.364908246127916</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R19" t="n">
-        <v>3.954710257881735</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S19" t="n">
-        <v>1.532790045361764</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3758014195722635</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U19" t="n">
-        <v>0.004797464930709754</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1960772936504485</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H20" t="n">
-        <v>2.008076583597657</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I20" t="n">
-        <v>7.559269863458924</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J20" t="n">
-        <v>16.64181520196477</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K20" t="n">
-        <v>24.94176704218826</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L20" t="n">
-        <v>30.94246751774319</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M20" t="n">
-        <v>34.42945708869934</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N20" t="n">
-        <v>34.98656169928369</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O20" t="n">
-        <v>33.03681811054704</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P20" t="n">
-        <v>28.19615992355158</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.17414184469489</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R20" t="n">
-        <v>12.31684029727</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S20" t="n">
-        <v>4.4681113290596</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8583283529548389</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01568618349203588</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1049106010319358</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H21" t="n">
-        <v>1.013215541545275</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I21" t="n">
-        <v>3.612053588160949</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J21" t="n">
-        <v>9.911751126442676</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K21" t="n">
-        <v>16.94076139558237</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L21" t="n">
-        <v>22.77894431616659</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M21" t="n">
-        <v>26.58195360357426</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N21" t="n">
-        <v>27.28549881838931</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O21" t="n">
-        <v>24.96090076394484</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P21" t="n">
-        <v>20.03332345494922</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.3917461948836</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R21" t="n">
-        <v>6.513659948281071</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S21" t="n">
-        <v>1.948668400746701</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4228633436331096</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U21" t="n">
-        <v>0.006902013225785254</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08795352372967871</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7819867837056895</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I22" t="n">
-        <v>2.645002331797975</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J22" t="n">
-        <v>6.218314127688285</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K22" t="n">
-        <v>10.21860030241176</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L22" t="n">
-        <v>13.07629024613787</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M22" t="n">
-        <v>13.78711463337136</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N22" t="n">
-        <v>13.45928786310621</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O22" t="n">
-        <v>12.43183079044586</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P22" t="n">
-        <v>10.63757890636041</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.364908246127916</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R22" t="n">
-        <v>3.954710257881735</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S22" t="n">
-        <v>1.532790045361764</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3758014195722635</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004797464930709754</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1960772936504485</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H23" t="n">
-        <v>2.008076583597657</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I23" t="n">
-        <v>7.559269863458924</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J23" t="n">
-        <v>16.64181520196477</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K23" t="n">
-        <v>24.94176704218826</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L23" t="n">
-        <v>30.94246751774319</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M23" t="n">
-        <v>34.42945708869934</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N23" t="n">
-        <v>34.98656169928369</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O23" t="n">
-        <v>33.03681811054704</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P23" t="n">
-        <v>28.19615992355158</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.17414184469489</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R23" t="n">
-        <v>12.31684029727</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S23" t="n">
-        <v>4.4681113290596</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8583283529548389</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01568618349203588</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1049106010319358</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H24" t="n">
-        <v>1.013215541545275</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I24" t="n">
-        <v>3.612053588160949</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J24" t="n">
-        <v>9.911751126442676</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K24" t="n">
-        <v>16.94076139558237</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L24" t="n">
-        <v>22.77894431616659</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M24" t="n">
-        <v>26.58195360357426</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N24" t="n">
-        <v>27.28549881838931</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O24" t="n">
-        <v>24.96090076394484</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P24" t="n">
-        <v>20.03332345494922</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.3917461948836</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R24" t="n">
-        <v>6.513659948281071</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S24" t="n">
-        <v>1.948668400746701</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4228633436331096</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006902013225785254</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08795352372967871</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7819867837056895</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I25" t="n">
-        <v>2.645002331797975</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J25" t="n">
-        <v>6.218314127688285</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K25" t="n">
-        <v>10.21860030241176</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L25" t="n">
-        <v>13.07629024613787</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M25" t="n">
-        <v>13.78711463337136</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N25" t="n">
-        <v>13.45928786310621</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O25" t="n">
-        <v>12.43183079044586</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P25" t="n">
-        <v>10.63757890636041</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.364908246127916</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R25" t="n">
-        <v>3.954710257881735</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S25" t="n">
-        <v>1.532790045361764</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3758014195722635</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004797464930709754</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1960772936504485</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H26" t="n">
-        <v>2.008076583597657</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I26" t="n">
-        <v>7.559269863458924</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J26" t="n">
-        <v>16.64181520196477</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K26" t="n">
-        <v>24.94176704218826</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L26" t="n">
-        <v>30.94246751774319</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M26" t="n">
-        <v>34.42945708869934</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N26" t="n">
-        <v>34.98656169928369</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O26" t="n">
-        <v>33.03681811054704</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P26" t="n">
-        <v>28.19615992355158</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.17414184469489</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R26" t="n">
-        <v>12.31684029727</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S26" t="n">
-        <v>4.4681113290596</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8583283529548389</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01568618349203588</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1049106010319358</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H27" t="n">
-        <v>1.013215541545275</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I27" t="n">
-        <v>3.612053588160949</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J27" t="n">
-        <v>9.911751126442676</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K27" t="n">
-        <v>16.94076139558237</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L27" t="n">
-        <v>22.77894431616659</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M27" t="n">
-        <v>26.58195360357426</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N27" t="n">
-        <v>27.28549881838931</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O27" t="n">
-        <v>24.96090076394484</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P27" t="n">
-        <v>20.03332345494922</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.3917461948836</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R27" t="n">
-        <v>6.513659948281071</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S27" t="n">
-        <v>1.948668400746701</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4228633436331096</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006902013225785254</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08795352372967871</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7819867837056895</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I28" t="n">
-        <v>2.645002331797975</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J28" t="n">
-        <v>6.218314127688285</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K28" t="n">
-        <v>10.21860030241176</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L28" t="n">
-        <v>13.07629024613787</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M28" t="n">
-        <v>13.78711463337136</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N28" t="n">
-        <v>13.45928786310621</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O28" t="n">
-        <v>12.43183079044586</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P28" t="n">
-        <v>10.63757890636041</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.364908246127916</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R28" t="n">
-        <v>3.954710257881735</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S28" t="n">
-        <v>1.532790045361764</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3758014195722635</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004797464930709754</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1960772936504485</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H29" t="n">
-        <v>2.008076583597657</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I29" t="n">
-        <v>7.559269863458924</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J29" t="n">
-        <v>16.64181520196477</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K29" t="n">
-        <v>24.94176704218826</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L29" t="n">
-        <v>30.94246751774319</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M29" t="n">
-        <v>34.42945708869934</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N29" t="n">
-        <v>34.98656169928369</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O29" t="n">
-        <v>33.03681811054704</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P29" t="n">
-        <v>28.19615992355158</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.17414184469489</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R29" t="n">
-        <v>12.31684029727</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S29" t="n">
-        <v>4.4681113290596</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8583283529548389</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01568618349203588</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1049106010319358</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H30" t="n">
-        <v>1.013215541545275</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I30" t="n">
-        <v>3.612053588160949</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J30" t="n">
-        <v>9.911751126442676</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K30" t="n">
-        <v>16.94076139558237</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L30" t="n">
-        <v>22.77894431616659</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M30" t="n">
-        <v>26.58195360357426</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N30" t="n">
-        <v>27.28549881838931</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O30" t="n">
-        <v>24.96090076394484</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P30" t="n">
-        <v>20.03332345494922</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.3917461948836</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R30" t="n">
-        <v>6.513659948281071</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S30" t="n">
-        <v>1.948668400746701</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4228633436331096</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006902013225785254</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08795352372967871</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7819867837056895</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I31" t="n">
-        <v>2.645002331797975</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J31" t="n">
-        <v>6.218314127688285</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K31" t="n">
-        <v>10.21860030241176</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L31" t="n">
-        <v>13.07629024613787</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M31" t="n">
-        <v>13.78711463337136</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N31" t="n">
-        <v>13.45928786310621</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O31" t="n">
-        <v>12.43183079044586</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P31" t="n">
-        <v>10.63757890636041</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.364908246127916</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R31" t="n">
-        <v>3.954710257881735</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S31" t="n">
-        <v>1.532790045361764</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3758014195722635</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004797464930709754</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1960772936504485</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H32" t="n">
-        <v>2.008076583597657</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I32" t="n">
-        <v>7.559269863458924</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J32" t="n">
-        <v>16.64181520196477</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K32" t="n">
-        <v>24.94176704218826</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L32" t="n">
-        <v>30.94246751774319</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M32" t="n">
-        <v>34.42945708869934</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N32" t="n">
-        <v>34.98656169928369</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O32" t="n">
-        <v>33.03681811054704</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P32" t="n">
-        <v>28.19615992355158</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.17414184469489</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R32" t="n">
-        <v>12.31684029727</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S32" t="n">
-        <v>4.4681113290596</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8583283529548389</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01568618349203588</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1049106010319358</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H33" t="n">
-        <v>1.013215541545275</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I33" t="n">
-        <v>3.612053588160949</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J33" t="n">
-        <v>9.911751126442676</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K33" t="n">
-        <v>16.94076139558237</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L33" t="n">
-        <v>22.77894431616659</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M33" t="n">
-        <v>26.58195360357426</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N33" t="n">
-        <v>27.28549881838931</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O33" t="n">
-        <v>24.96090076394484</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P33" t="n">
-        <v>20.03332345494922</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.3917461948836</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R33" t="n">
-        <v>6.513659948281071</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S33" t="n">
-        <v>1.948668400746701</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T33" t="n">
-        <v>0.4228633436331096</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006902013225785254</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08795352372967871</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7819867837056895</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I34" t="n">
-        <v>2.645002331797975</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J34" t="n">
-        <v>6.218314127688285</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K34" t="n">
-        <v>10.21860030241176</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L34" t="n">
-        <v>13.07629024613787</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M34" t="n">
-        <v>13.78711463337136</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N34" t="n">
-        <v>13.45928786310621</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O34" t="n">
-        <v>12.43183079044586</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P34" t="n">
-        <v>10.63757890636041</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.364908246127916</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R34" t="n">
-        <v>3.954710257881735</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S34" t="n">
-        <v>1.532790045361764</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3758014195722635</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004797464930709754</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1960772936504485</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H35" t="n">
-        <v>2.008076583597657</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I35" t="n">
-        <v>7.559269863458924</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J35" t="n">
-        <v>16.64181520196477</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K35" t="n">
-        <v>24.94176704218826</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L35" t="n">
-        <v>30.94246751774319</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M35" t="n">
-        <v>34.42945708869934</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N35" t="n">
-        <v>34.98656169928369</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O35" t="n">
-        <v>33.03681811054704</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P35" t="n">
-        <v>28.19615992355158</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.17414184469489</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R35" t="n">
-        <v>12.31684029727</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S35" t="n">
-        <v>4.4681113290596</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T35" t="n">
-        <v>0.8583283529548389</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01568618349203588</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1049106010319358</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H36" t="n">
-        <v>1.013215541545275</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I36" t="n">
-        <v>3.612053588160949</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J36" t="n">
-        <v>9.911751126442676</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K36" t="n">
-        <v>16.94076139558237</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L36" t="n">
-        <v>22.77894431616659</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M36" t="n">
-        <v>26.58195360357426</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N36" t="n">
-        <v>27.28549881838931</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O36" t="n">
-        <v>24.96090076394484</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P36" t="n">
-        <v>20.03332345494922</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.3917461948836</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R36" t="n">
-        <v>6.513659948281071</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S36" t="n">
-        <v>1.948668400746701</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T36" t="n">
-        <v>0.4228633436331096</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006902013225785254</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.08795352372967871</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7819867837056895</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I37" t="n">
-        <v>2.645002331797975</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J37" t="n">
-        <v>6.218314127688285</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K37" t="n">
-        <v>10.21860030241176</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L37" t="n">
-        <v>13.07629024613787</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M37" t="n">
-        <v>13.78711463337136</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N37" t="n">
-        <v>13.45928786310621</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O37" t="n">
-        <v>12.43183079044586</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P37" t="n">
-        <v>10.63757890636041</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.364908246127916</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R37" t="n">
-        <v>3.954710257881735</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S37" t="n">
-        <v>1.532790045361764</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3758014195722635</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004797464930709754</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1960772936504485</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H38" t="n">
-        <v>2.008076583597657</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I38" t="n">
-        <v>7.559269863458924</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J38" t="n">
-        <v>16.64181520196477</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K38" t="n">
-        <v>24.94176704218826</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L38" t="n">
-        <v>30.94246751774319</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M38" t="n">
-        <v>34.42945708869934</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N38" t="n">
-        <v>34.98656169928369</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O38" t="n">
-        <v>33.03681811054704</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P38" t="n">
-        <v>28.19615992355158</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.17414184469489</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R38" t="n">
-        <v>12.31684029727</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S38" t="n">
-        <v>4.4681113290596</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T38" t="n">
-        <v>0.8583283529548389</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01568618349203588</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1049106010319358</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H39" t="n">
-        <v>1.013215541545275</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I39" t="n">
-        <v>3.612053588160949</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J39" t="n">
-        <v>9.911751126442676</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K39" t="n">
-        <v>16.94076139558237</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L39" t="n">
-        <v>22.77894431616659</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M39" t="n">
-        <v>26.58195360357426</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N39" t="n">
-        <v>27.28549881838931</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O39" t="n">
-        <v>24.96090076394484</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P39" t="n">
-        <v>20.03332345494922</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q39" t="n">
-        <v>13.3917461948836</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R39" t="n">
-        <v>6.513659948281071</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S39" t="n">
-        <v>1.948668400746701</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T39" t="n">
-        <v>0.4228633436331096</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006902013225785254</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08795352372967871</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7819867837056895</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I40" t="n">
-        <v>2.645002331797975</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J40" t="n">
-        <v>6.218314127688285</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K40" t="n">
-        <v>10.21860030241176</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L40" t="n">
-        <v>13.07629024613787</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M40" t="n">
-        <v>13.78711463337136</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N40" t="n">
-        <v>13.45928786310621</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O40" t="n">
-        <v>12.43183079044586</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P40" t="n">
-        <v>10.63757890636041</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.364908246127916</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R40" t="n">
-        <v>3.954710257881735</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S40" t="n">
-        <v>1.532790045361764</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3758014195722635</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004797464930709754</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1960772936504485</v>
+        <v>0.1960772936504476</v>
       </c>
       <c r="H41" t="n">
-        <v>2.008076583597657</v>
+        <v>2.008076583597647</v>
       </c>
       <c r="I41" t="n">
-        <v>7.559269863458924</v>
+        <v>7.55926986345889</v>
       </c>
       <c r="J41" t="n">
-        <v>16.64181520196477</v>
+        <v>16.64181520196469</v>
       </c>
       <c r="K41" t="n">
-        <v>24.94176704218826</v>
+        <v>24.94176704218815</v>
       </c>
       <c r="L41" t="n">
-        <v>30.94246751774319</v>
+        <v>30.94246751774304</v>
       </c>
       <c r="M41" t="n">
-        <v>34.42945708869934</v>
+        <v>34.42945708869919</v>
       </c>
       <c r="N41" t="n">
-        <v>34.98656169928369</v>
+        <v>34.98656169928353</v>
       </c>
       <c r="O41" t="n">
-        <v>33.03681811054704</v>
+        <v>33.03681811054688</v>
       </c>
       <c r="P41" t="n">
-        <v>28.19615992355158</v>
+        <v>28.19615992355145</v>
       </c>
       <c r="Q41" t="n">
-        <v>21.17414184469489</v>
+        <v>21.17414184469479</v>
       </c>
       <c r="R41" t="n">
-        <v>12.31684029727</v>
+        <v>12.31684029726994</v>
       </c>
       <c r="S41" t="n">
-        <v>4.4681113290596</v>
+        <v>4.46811132905958</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8583283529548389</v>
+        <v>0.8583283529548349</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01568618349203588</v>
+        <v>0.01568618349203581</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1049106010319358</v>
+        <v>0.1049106010319353</v>
       </c>
       <c r="H42" t="n">
-        <v>1.013215541545275</v>
+        <v>1.01321554154527</v>
       </c>
       <c r="I42" t="n">
-        <v>3.612053588160949</v>
+        <v>3.612053588160932</v>
       </c>
       <c r="J42" t="n">
-        <v>9.911751126442676</v>
+        <v>9.911751126442629</v>
       </c>
       <c r="K42" t="n">
-        <v>16.94076139558237</v>
+        <v>16.9407613955823</v>
       </c>
       <c r="L42" t="n">
-        <v>22.77894431616659</v>
+        <v>22.77894431616649</v>
       </c>
       <c r="M42" t="n">
-        <v>26.58195360357426</v>
+        <v>26.58195360357414</v>
       </c>
       <c r="N42" t="n">
-        <v>27.28549881838931</v>
+        <v>27.28549881838918</v>
       </c>
       <c r="O42" t="n">
-        <v>24.96090076394484</v>
+        <v>24.96090076394472</v>
       </c>
       <c r="P42" t="n">
-        <v>20.03332345494922</v>
+        <v>20.03332345494913</v>
       </c>
       <c r="Q42" t="n">
-        <v>13.3917461948836</v>
+        <v>13.39174619488354</v>
       </c>
       <c r="R42" t="n">
-        <v>6.513659948281071</v>
+        <v>6.513659948281041</v>
       </c>
       <c r="S42" t="n">
-        <v>1.948668400746701</v>
+        <v>1.948668400746692</v>
       </c>
       <c r="T42" t="n">
-        <v>0.4228633436331096</v>
+        <v>0.4228633436331076</v>
       </c>
       <c r="U42" t="n">
-        <v>0.006902013225785254</v>
+        <v>0.006902013225785222</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08795352372967871</v>
+        <v>0.08795352372967831</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7819867837056895</v>
+        <v>0.7819867837056859</v>
       </c>
       <c r="I43" t="n">
-        <v>2.645002331797975</v>
+        <v>2.645002331797963</v>
       </c>
       <c r="J43" t="n">
-        <v>6.218314127688285</v>
+        <v>6.218314127688256</v>
       </c>
       <c r="K43" t="n">
-        <v>10.21860030241176</v>
+        <v>10.21860030241171</v>
       </c>
       <c r="L43" t="n">
-        <v>13.07629024613787</v>
+        <v>13.07629024613781</v>
       </c>
       <c r="M43" t="n">
-        <v>13.78711463337136</v>
+        <v>13.7871146333713</v>
       </c>
       <c r="N43" t="n">
-        <v>13.45928786310621</v>
+        <v>13.45928786310614</v>
       </c>
       <c r="O43" t="n">
-        <v>12.43183079044586</v>
+        <v>12.43183079044581</v>
       </c>
       <c r="P43" t="n">
-        <v>10.63757890636041</v>
+        <v>10.63757890636036</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.364908246127916</v>
+        <v>7.364908246127881</v>
       </c>
       <c r="R43" t="n">
-        <v>3.954710257881735</v>
+        <v>3.954710257881716</v>
       </c>
       <c r="S43" t="n">
-        <v>1.532790045361764</v>
+        <v>1.532790045361757</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3758014195722635</v>
+        <v>0.3758014195722618</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004797464930709754</v>
+        <v>0.004797464930709731</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1960772936504495</v>
+        <v>0.1960772936504482</v>
       </c>
       <c r="H44" t="n">
-        <v>2.008076583597666</v>
+        <v>2.008076583597653</v>
       </c>
       <c r="I44" t="n">
-        <v>7.55926986345896</v>
+        <v>7.559269863458913</v>
       </c>
       <c r="J44" t="n">
-        <v>16.64181520196485</v>
+        <v>16.64181520196475</v>
       </c>
       <c r="K44" t="n">
-        <v>24.94176704218838</v>
+        <v>24.94176704218822</v>
       </c>
       <c r="L44" t="n">
-        <v>30.94246751774333</v>
+        <v>30.94246751774314</v>
       </c>
       <c r="M44" t="n">
-        <v>34.42945708869951</v>
+        <v>34.42945708869929</v>
       </c>
       <c r="N44" t="n">
-        <v>34.98656169928385</v>
+        <v>34.98656169928363</v>
       </c>
       <c r="O44" t="n">
-        <v>33.03681811054719</v>
+        <v>33.03681811054698</v>
       </c>
       <c r="P44" t="n">
-        <v>28.19615992355171</v>
+        <v>28.19615992355154</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.17414184469499</v>
+        <v>21.17414184469486</v>
       </c>
       <c r="R44" t="n">
-        <v>12.31684029727006</v>
+        <v>12.31684029726998</v>
       </c>
       <c r="S44" t="n">
-        <v>4.468111329059622</v>
+        <v>4.468111329059593</v>
       </c>
       <c r="T44" t="n">
-        <v>0.8583283529548429</v>
+        <v>0.8583283529548376</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01568618349203595</v>
+        <v>0.01568618349203586</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1049106010319363</v>
+        <v>0.1049106010319357</v>
       </c>
       <c r="H45" t="n">
-        <v>1.01321554154528</v>
+        <v>1.013215541545273</v>
       </c>
       <c r="I45" t="n">
-        <v>3.612053588160966</v>
+        <v>3.612053588160943</v>
       </c>
       <c r="J45" t="n">
-        <v>9.911751126442722</v>
+        <v>9.91175112644266</v>
       </c>
       <c r="K45" t="n">
-        <v>16.94076139558246</v>
+        <v>16.94076139558235</v>
       </c>
       <c r="L45" t="n">
-        <v>22.7789443161667</v>
+        <v>22.77894431616656</v>
       </c>
       <c r="M45" t="n">
-        <v>26.58195360357439</v>
+        <v>26.58195360357422</v>
       </c>
       <c r="N45" t="n">
-        <v>27.28549881838944</v>
+        <v>27.28549881838927</v>
       </c>
       <c r="O45" t="n">
-        <v>24.96090076394495</v>
+        <v>24.9609007639448</v>
       </c>
       <c r="P45" t="n">
-        <v>20.03332345494931</v>
+        <v>20.03332345494919</v>
       </c>
       <c r="Q45" t="n">
-        <v>13.39174619488366</v>
+        <v>13.39174619488358</v>
       </c>
       <c r="R45" t="n">
-        <v>6.513659948281101</v>
+        <v>6.51365994828106</v>
       </c>
       <c r="S45" t="n">
-        <v>1.948668400746711</v>
+        <v>1.948668400746698</v>
       </c>
       <c r="T45" t="n">
-        <v>0.4228633436331116</v>
+        <v>0.4228633436331089</v>
       </c>
       <c r="U45" t="n">
-        <v>0.006902013225785287</v>
+        <v>0.006902013225785243</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.08795352372967913</v>
+        <v>0.08795352372967857</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7819867837056932</v>
+        <v>0.7819867837056883</v>
       </c>
       <c r="I46" t="n">
-        <v>2.645002331797988</v>
+        <v>2.645002331797971</v>
       </c>
       <c r="J46" t="n">
-        <v>6.218314127688314</v>
+        <v>6.218314127688275</v>
       </c>
       <c r="K46" t="n">
-        <v>10.21860030241181</v>
+        <v>10.21860030241175</v>
       </c>
       <c r="L46" t="n">
-        <v>13.07629024613793</v>
+        <v>13.07629024613785</v>
       </c>
       <c r="M46" t="n">
-        <v>13.78711463337143</v>
+        <v>13.78711463337134</v>
       </c>
       <c r="N46" t="n">
-        <v>13.45928786310627</v>
+        <v>13.45928786310619</v>
       </c>
       <c r="O46" t="n">
-        <v>12.43183079044592</v>
+        <v>12.43183079044585</v>
       </c>
       <c r="P46" t="n">
-        <v>10.63757890636046</v>
+        <v>10.63757890636039</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.36490824612795</v>
+        <v>7.364908246127904</v>
       </c>
       <c r="R46" t="n">
-        <v>3.954710257881753</v>
+        <v>3.954710257881728</v>
       </c>
       <c r="S46" t="n">
-        <v>1.532790045361771</v>
+        <v>1.532790045361762</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3758014195722653</v>
+        <v>0.3758014195722629</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004797464930709776</v>
+        <v>0.004797464930709746</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35386,10 +35386,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.4390198781911</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="D11" t="n">
-        <v>7.4390198781911</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -35404,22 +35404,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5363618234108</v>
+        <v>5.9122760365766</v>
       </c>
       <c r="J11" t="n">
-        <v>7.4390198781911</v>
+        <v>0.07926599571901809</v>
       </c>
       <c r="K11" t="n">
-        <v>7.414197394664768</v>
+        <v>7.414197394664896</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2352663949511111</v>
+        <v>0.235266394951168</v>
       </c>
       <c r="N11" t="n">
-        <v>2.308771655393393</v>
+        <v>2.308771655393457</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35428,25 +35428,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.04583409928437732</v>
+        <v>0.04583409928452298</v>
       </c>
       <c r="R11" t="n">
-        <v>2.10877964987526</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.092619319182004</v>
       </c>
       <c r="T11" t="n">
-        <v>7.4390198781911</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="V11" t="n">
-        <v>7.4390198781911</v>
+        <v>7.439019878191345</v>
       </c>
       <c r="W11" t="n">
-        <v>7.4390198781911</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -35623,10 +35623,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.012421037435685</v>
+        <v>8.012421037436596</v>
       </c>
       <c r="D14" t="n">
-        <v>8.012421037435685</v>
+        <v>8.012421037436596</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -35641,10 +35641,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.059112757287835</v>
+        <v>5.767155387324635</v>
       </c>
       <c r="J14" t="n">
-        <v>7.338360551810165</v>
+        <v>8.012421037436596</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,10 +35653,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3821031156625168</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.455608376104806</v>
+        <v>2.455608376104863</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35665,25 +35665,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1926708199958007</v>
+        <v>0.1926708199959535</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.496016034109168</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8.012421037435685</v>
+        <v>8.012421037436596</v>
       </c>
       <c r="U14" t="n">
-        <v>8.012421037435685</v>
+        <v>7.496016034109914</v>
       </c>
       <c r="V14" t="n">
-        <v>8.012421037435685</v>
+        <v>8.012421037436596</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>8.012421037436596</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -35863,7 +35863,7 @@
         <v>16.18083491622565</v>
       </c>
       <c r="D17" t="n">
-        <v>12.75449809618812</v>
+        <v>16.18083491622565</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -35878,37 +35878,37 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>7.782636285399974</v>
       </c>
       <c r="J17" t="n">
         <v>16.18083491622565</v>
       </c>
       <c r="K17" t="n">
-        <v>9.28455764348837</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.105626643774713</v>
+        <v>2.105626643774563</v>
       </c>
       <c r="N17" t="n">
-        <v>4.179131904217002</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.116023099699646</v>
+        <v>1.116023099699532</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.916194348107997</v>
+        <v>1.916194348107922</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>3.979139898698804</v>
       </c>
       <c r="S17" t="n">
-        <v>16.18083491622565</v>
+        <v>10.75871294467436</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -35920,10 +35920,10 @@
         <v>16.18083491622565</v>
       </c>
       <c r="W17" t="n">
-        <v>13.00329558953649</v>
+        <v>16.18083491622565</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>0.5201591884328423</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -36097,10 +36097,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>18.57974169281347</v>
+        <v>18.57974169281437</v>
       </c>
       <c r="D20" t="n">
-        <v>18.57974169281347</v>
+        <v>10.00900151341278</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -36115,13 +36115,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>8.095457463806213</v>
       </c>
       <c r="J20" t="n">
-        <v>18.57974169281347</v>
+        <v>18.57974169281437</v>
       </c>
       <c r="K20" t="n">
-        <v>9.597378821894438</v>
+        <v>9.597378821894495</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36133,34 +36133,34 @@
         <v>4.49195308262307</v>
       </c>
       <c r="O20" t="n">
-        <v>1.428844278105714</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.229015526514047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.291961077104924</v>
+        <v>4.291961077105043</v>
       </c>
       <c r="S20" t="n">
-        <v>18.57974169281347</v>
+        <v>18.57974169281437</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.540286413750138</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>18.57974169281347</v>
+        <v>18.57974169281437</v>
       </c>
       <c r="X20" t="n">
-        <v>0.2401242603775131</v>
+        <v>0.8329803668390809</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -36334,10 +36334,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>21.34048361410214</v>
+        <v>21.3404836141022</v>
       </c>
       <c r="D23" t="n">
-        <v>31.201333589765</v>
+        <v>1.351677898693708</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>9.602115422739075</v>
       </c>
       <c r="J23" t="n">
-        <v>31.201333589765</v>
+        <v>31.20133358976494</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36367,10 +36367,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>5.998611041556046</v>
+        <v>1.502146186920754</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6587094307596999</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,19 +36379,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>5.798619036037906</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>31.201333589765</v>
+        <v>31.20133358976494</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>31.20133358976494</v>
       </c>
       <c r="V23" t="n">
-        <v>31.201333589765</v>
+        <v>31.20133358976494</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36571,7 +36571,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>16.30252659019391</v>
       </c>
       <c r="D26" t="n">
         <v>31.20133358976494</v>
@@ -36589,22 +36589,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>9.602115422739105</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>11.10403678082747</v>
+        <v>11.10403678082741</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>3.925105781113814</v>
+        <v>1.260884771853625</v>
       </c>
       <c r="N26" t="n">
-        <v>5.998611041556103</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36613,16 +36613,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>3.73567348544708</v>
       </c>
       <c r="R26" t="n">
-        <v>5.798619036037962</v>
+        <v>5.798619036037955</v>
       </c>
       <c r="S26" t="n">
         <v>31.20133358976494</v>
       </c>
       <c r="T26" t="n">
-        <v>30.63494786608033</v>
+        <v>31.20133358976494</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -36631,10 +36631,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>26.79601604785972</v>
+        <v>26.79601604785978</v>
       </c>
       <c r="X26" t="n">
-        <v>2.339638325771944</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -36811,7 +36811,7 @@
         <v>21.3404836141022</v>
       </c>
       <c r="D29" t="n">
-        <v>12.22540395223177</v>
+        <v>1.351677898692685</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -36826,52 +36826,52 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>9.602115422739075</v>
       </c>
       <c r="J29" t="n">
         <v>31.20133358976494</v>
       </c>
       <c r="K29" t="n">
-        <v>11.10403678082747</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>3.925105781113814</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>5.998611041556103</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.935502237038747</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.73567348544708</v>
+        <v>3.735673485447023</v>
       </c>
       <c r="R29" t="n">
-        <v>5.798619036037957</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>2.171790243379081</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>31.20133358976494</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>31.20133358976494</v>
       </c>
       <c r="V29" t="n">
-        <v>31.20133358976494</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>26.79601604785972</v>
       </c>
       <c r="X29" t="n">
-        <v>2.339638325771944</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -37045,10 +37045,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>22.47774679100462</v>
       </c>
       <c r="D32" t="n">
-        <v>38.30477759083772</v>
+        <v>38.30477759083766</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -37063,13 +37063,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10.73937859964161</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>34.63383918998147</v>
+        <v>10.04421310068116</v>
       </c>
       <c r="K32" t="n">
-        <v>12.24129995772995</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>7.135874218458575</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -37090,22 +37090,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>6.935882212940328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>49.78107528257711</v>
       </c>
       <c r="T32" t="n">
-        <v>49.78107528257843</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>49.78107528257711</v>
       </c>
       <c r="V32" t="n">
-        <v>36.71735870311073</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>12.22883328171798</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -37282,10 +37282,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>22.16492561259832</v>
       </c>
       <c r="D35" t="n">
-        <v>37.99195641243165</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>10.42655742123552</v>
+        <v>10.4265574212352</v>
       </c>
       <c r="J35" t="n">
-        <v>31.24232839880232</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>11.9284787793239</v>
+        <v>11.9284787793235</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.749547779610232</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>6.823053040052507</v>
+        <v>6.823053040052059</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>3.759944235534739</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>4.560115483943125</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37333,19 +37333,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>7.094309734065776</v>
       </c>
       <c r="U35" t="n">
-        <v>42.34205540438732</v>
+        <v>42.34205540438576</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>36.40453752470438</v>
       </c>
       <c r="W35" t="n">
-        <v>27.62045804635613</v>
+        <v>27.62045804635585</v>
       </c>
       <c r="X35" t="n">
-        <v>3.164080324268355</v>
+        <v>3.16408032426807</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -37522,7 +37522,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>33.03866953773485</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -37543,46 +37543,46 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>11.75086087873893</v>
+        <v>7.879660263077454</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.571929879025276</v>
+        <v>4.571929879024992</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>3.58232633495021</v>
+        <v>3.582326334949983</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.382497583358543</v>
+        <v>4.382497583358347</v>
       </c>
       <c r="R38" t="n">
-        <v>6.44544313394942</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>41.76865424514274</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>41.76865424514274</v>
+        <v>41.76865424514051</v>
       </c>
       <c r="U38" t="n">
-        <v>41.76865424514274</v>
+        <v>41.76865424514051</v>
       </c>
       <c r="V38" t="n">
-        <v>17.18029116709653</v>
+        <v>36.2269196241196</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>2.986462423683406</v>
+        <v>2.986462423683292</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -37756,10 +37756,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>21.48732033481349</v>
       </c>
       <c r="D41" t="n">
-        <v>33.60024036635286</v>
+        <v>33.60024036635366</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -37774,52 +37774,52 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>9.748952143450367</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>15.53589583073335</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>11.25087350153865</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.071942501825049</v>
+        <v>4.071942501824935</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>3.082338957749982</v>
+        <v>3.082338957749926</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.882510206158315</v>
+        <v>3.88251020615829</v>
       </c>
       <c r="R41" t="n">
-        <v>5.945455756749192</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>33.60024036635366</v>
       </c>
       <c r="T41" t="n">
-        <v>33.60024036635286</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>33.60024036635286</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>33.60024036635286</v>
+        <v>33.60024036635366</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.465916447014138</v>
+        <v>2.486475046483235</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -37993,10 +37993,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>18.39619759409646</v>
       </c>
       <c r="D44" t="n">
-        <v>31.20133358976506</v>
+        <v>31.201333589765</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -38011,49 +38011,49 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>9.602115422739018</v>
+        <v>8.53961751020671</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>11.10403678082747</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>3.9251057811137</v>
       </c>
       <c r="N44" t="n">
-        <v>5.99861104155616</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2.935502237038804</v>
+        <v>2.935502237038634</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.735673485447084</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.20133358976506</v>
+        <v>31.201333589765</v>
       </c>
       <c r="T44" t="n">
-        <v>31.20133358976506</v>
+        <v>31.201333589765</v>
       </c>
       <c r="U44" t="n">
-        <v>31.20133358976506</v>
+        <v>31.201333589765</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4204841548478271</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
